--- a/Time Table May 2018.xlsx
+++ b/Time Table May 2018.xlsx
@@ -392,12 +392,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6330,16 +6330,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>518160</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>434340</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>411480</xdr:rowOff>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6348,7 +6348,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14439900" y="14577060"/>
+          <a:off x="12382500" y="14630400"/>
           <a:ext cx="640080" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7071,16 +7071,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>434340</xdr:rowOff>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7089,7 +7089,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13944600" y="14599920"/>
+          <a:off x="11917680" y="14615160"/>
           <a:ext cx="396240" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14909,16 +14909,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>434340</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>411480</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>426720</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14927,7 +14927,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7459980" y="12367260"/>
+          <a:off x="6949440" y="10614660"/>
           <a:ext cx="1257300" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14966,9 +14966,987 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1000"/>
-            <a:t>SGD</a:t>
+            <a:t>SGD 4800</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
+            <a:t>บาท</a:t>
           </a:r>
           <a:endParaRPr lang="th-TH" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>434340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="246" name="สี่เหลี่ยมผืนผ้า 245"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9425940" y="8412480"/>
+          <a:ext cx="1257300" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>กดเงิน </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>TMB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>4800</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
+            <a:t>บาท</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>655320</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>632460</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="247" name="สี่เหลี่ยมผืนผ้า 246"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6621780" y="7094220"/>
+          <a:ext cx="1965960" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>สอบ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>Final </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>Web App , 507</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>624840</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>426720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="248" name="สี่เหลี่ยมผืนผ้า 247"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9265920" y="7078980"/>
+          <a:ext cx="1965960" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>สอบ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>Final </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>Lec Com Pro , 3202</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>655320</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>426720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="249" name="สี่เหลี่ยมผืนผ้า 248"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9296400" y="5311140"/>
+          <a:ext cx="1965960" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>สอบ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>Final </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>Soft Pat Lab, 203</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>654840</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>403440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="250" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4823460" y="5303520"/>
+          <a:ext cx="471960" cy="403440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="77933C"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>คอมใหญ่</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="251" name="สี่เหลี่ยมผืนผ้า 250"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5341620" y="5303520"/>
+          <a:ext cx="640080" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เดินทาง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>624840</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>434340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="252" name="สี่เหลี่ยมผืนผ้า 251"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5288280" y="7086600"/>
+          <a:ext cx="640080" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เดินทาง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>426720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>640080</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>403860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="253" name="สี่เหลี่ยมผืนผ้า 252"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6629400" y="10149840"/>
+          <a:ext cx="1965960" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>สอบ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>Final </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>HCI, 503-505</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>640080</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="254" name="สี่เหลี่ยมผืนผ้า 253"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5303520" y="10195560"/>
+          <a:ext cx="640080" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เดินทาง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>247380</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>426420</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="255" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8001000" y="7536180"/>
+          <a:ext cx="2853420" cy="403560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="E46C0A"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>เรียนอาชีพ</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>262620</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>426420</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="256" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8016240" y="7978140"/>
+          <a:ext cx="2853420" cy="403560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="E46C0A"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>เรียนอาชีพ</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>224520</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>7320</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="257" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7978140" y="11978640"/>
+          <a:ext cx="2853420" cy="403560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="E46C0A"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>เรียนอาชีพ</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>247380</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>434040</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="258" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8001000" y="12405360"/>
+          <a:ext cx="2853420" cy="403560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="E46C0A"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>เรียนอาชีพ</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>632460</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>171180</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>380700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="259" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7924800" y="16771620"/>
+          <a:ext cx="2853420" cy="403560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="E46C0A"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>เรียนอาชีพ</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -52363,8 +53341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F10" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -52376,35 +53354,35 @@
       <c r="A1" s="1">
         <v>43221</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="14"/>
     </row>
     <row r="2" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="11" t="s">
         <v>73</v>
       </c>
       <c r="B2" s="3">
@@ -52694,32 +53672,32 @@
       <c r="A11" s="1">
         <v>43221</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="14"/>
     </row>
     <row r="12" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -53006,32 +53984,32 @@
       <c r="A21" s="1">
         <v>43221</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
-      <c r="T21" s="12"/>
-      <c r="U21" s="12"/>
-      <c r="V21" s="12"/>
-      <c r="W21" s="12"/>
-      <c r="X21" s="12"/>
-      <c r="Y21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="13"/>
+      <c r="V21" s="13"/>
+      <c r="W21" s="13"/>
+      <c r="X21" s="13"/>
+      <c r="Y21" s="14"/>
     </row>
     <row r="22" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
@@ -53318,32 +54296,32 @@
       <c r="A31" s="1">
         <v>43221</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="12"/>
-      <c r="P31" s="12"/>
-      <c r="Q31" s="12"/>
-      <c r="R31" s="12"/>
-      <c r="S31" s="12"/>
-      <c r="T31" s="12"/>
-      <c r="U31" s="12"/>
-      <c r="V31" s="12"/>
-      <c r="W31" s="12"/>
-      <c r="X31" s="12"/>
-      <c r="Y31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="13"/>
+      <c r="S31" s="13"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="13"/>
+      <c r="V31" s="13"/>
+      <c r="W31" s="13"/>
+      <c r="X31" s="13"/>
+      <c r="Y31" s="14"/>
     </row>
     <row r="32" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
@@ -53634,32 +54612,32 @@
       <c r="A41" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
-      <c r="M41" s="12"/>
-      <c r="N41" s="12"/>
-      <c r="O41" s="12"/>
-      <c r="P41" s="12"/>
-      <c r="Q41" s="12"/>
-      <c r="R41" s="12"/>
-      <c r="S41" s="12"/>
-      <c r="T41" s="12"/>
-      <c r="U41" s="12"/>
-      <c r="V41" s="12"/>
-      <c r="W41" s="12"/>
-      <c r="X41" s="12"/>
-      <c r="Y41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="13"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="13"/>
+      <c r="Q41" s="13"/>
+      <c r="R41" s="13"/>
+      <c r="S41" s="13"/>
+      <c r="T41" s="13"/>
+      <c r="U41" s="13"/>
+      <c r="V41" s="13"/>
+      <c r="W41" s="13"/>
+      <c r="X41" s="13"/>
+      <c r="Y41" s="14"/>
     </row>
     <row r="42" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
@@ -54924,32 +55902,32 @@
       <c r="A1" s="1">
         <v>43191</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="14"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -55240,32 +56218,32 @@
       <c r="A11" s="1">
         <v>43160</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="14"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
@@ -55917,32 +56895,32 @@
       <c r="A31" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="12"/>
-      <c r="P31" s="12"/>
-      <c r="Q31" s="12"/>
-      <c r="R31" s="12"/>
-      <c r="S31" s="12"/>
-      <c r="T31" s="12"/>
-      <c r="U31" s="12"/>
-      <c r="V31" s="12"/>
-      <c r="W31" s="12"/>
-      <c r="X31" s="12"/>
-      <c r="Y31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="13"/>
+      <c r="S31" s="13"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="13"/>
+      <c r="V31" s="13"/>
+      <c r="W31" s="13"/>
+      <c r="X31" s="13"/>
+      <c r="Y31" s="14"/>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">

--- a/Time Table May 2018.xlsx
+++ b/Time Table May 2018.xlsx
@@ -5548,6 +5548,11 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -5610,6 +5615,11 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -5672,6 +5682,11 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -5988,6 +6003,11 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -6053,6 +6073,11 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -6118,6 +6143,11 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -6216,16 +6246,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>358140</xdr:colOff>
+      <xdr:colOff>121920</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6234,12 +6264,17 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13639800" y="2232660"/>
+          <a:off x="12740640" y="15499080"/>
           <a:ext cx="640080" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -6330,144 +6365,97 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>449580</xdr:colOff>
+      <xdr:colOff>388620</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>426720</xdr:colOff>
+      <xdr:rowOff>434340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="646" name="สี่เหลี่ยมผืนผ้า 645"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11681460" y="14599920"/>
+          <a:ext cx="640080" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เดินทาง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="646" name="สี่เหลี่ยมผืนผ้า 645"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12382500" y="14630400"/>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="647" name="สี่เหลี่ยมผืนผ้า 646"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13289280" y="15057120"/>
           <a:ext cx="640080" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>เดินทาง</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>396240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>510540</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>373380</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="647" name="สี่เหลี่ยมผืนผ้า 646"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14455140" y="14980920"/>
-          <a:ext cx="640080" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>เดินทาง</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>632460</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="648" name="สี่เหลี่ยมผืนผ้า 647"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15217140" y="15544800"/>
-          <a:ext cx="640080" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -6525,6 +6513,11 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -6582,6 +6575,11 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -6672,16 +6670,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
       <xdr:row>35</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>640080</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>419100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6690,12 +6688,17 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14584680" y="2209800"/>
+          <a:off x="15422880" y="15491460"/>
           <a:ext cx="640080" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -7071,16 +7074,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>434340</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7089,12 +7092,17 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11917680" y="14615160"/>
+          <a:off x="12352020" y="14599920"/>
           <a:ext cx="396240" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -7152,6 +7160,11 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -7185,16 +7198,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>434340</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>419100</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7203,12 +7216,17 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13959840" y="15026640"/>
+          <a:off x="12938760" y="15064740"/>
           <a:ext cx="396240" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -7266,6 +7284,11 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -7299,16 +7322,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>289560</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>419100</xdr:rowOff>
+      <xdr:rowOff>426720</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7317,12 +7340,17 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14211300" y="2209800"/>
+          <a:off x="14958060" y="15476220"/>
           <a:ext cx="426720" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -7380,6 +7408,11 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -14592,16 +14625,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>388620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>365760</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>624840</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>426720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>350520</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14610,37 +14643,37 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15392400" y="14089380"/>
-          <a:ext cx="640080" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>เดินทาง</a:t>
+          <a:off x="11231880" y="13243560"/>
+          <a:ext cx="3573780" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="800"/>
+            <a:t>หากนอนที่สนามบิน มันเร็วก็จริง แต่เสียอย่างคือ มื้อเช้าจะแพง อยู่ที่สถานการณ์การเงิน โอเคมั้ย</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -14984,16 +15017,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>434340</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -15002,7 +15035,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9425940" y="8412480"/>
+          <a:off x="8961120" y="9753600"/>
           <a:ext cx="1257300" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15929,6 +15962,3930 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>เรียนอาชีพ</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>87360</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>418800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="260" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10005060" y="5760720"/>
+          <a:ext cx="2015220" cy="403560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="E46C0A"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>สั่งยาเพิ่ม</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>426720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="261" name="สี่เหลี่ยมผืนผ้า 260"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5341620" y="5753100"/>
+          <a:ext cx="640080" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เดินทาง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>426720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>403860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="262" name="สี่เหลี่ยมผืนผ้า 261"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10226040" y="6614160"/>
+          <a:ext cx="1318260" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ไปติดตามผลร้องเรียน</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t> 1111</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>593880</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>403440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="263" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4762500" y="7071360"/>
+          <a:ext cx="471960" cy="403440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="77933C"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>คอมใหญ่</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="264" name="สี่เหลี่ยมผืนผ้า 263"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14264640" y="5334000"/>
+          <a:ext cx="1965960" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ส่ง</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t> Final </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>Soft Pat Lab, 203</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>396240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="266" name="สี่เหลี่ยมผืนผ้า 265"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5341620" y="10584180"/>
+          <a:ext cx="640080" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เดินทาง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>655320</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>426720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="267" name="สี่เหลี่ยมผืนผ้า 266"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5958840" y="11056620"/>
+          <a:ext cx="2834640" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>Pack </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ของ และคอม ใส่กระเป๋า</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
+            <a:t> (ห้ามใช้กระเป๋าเดินทาง)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
+            <a:t>มีบอกที่ขีดเส้นใต้ใน </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>to do list</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>277860</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>434040</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="268" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7543800" y="5775960"/>
+          <a:ext cx="2015220" cy="403560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="E46C0A"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>ติว </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Com Pro</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>140700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>426420</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="269" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10058400" y="6210300"/>
+          <a:ext cx="2015220" cy="403560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="E46C0A"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>ติว </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Web App</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>411180</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="270" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10934700" y="7520940"/>
+          <a:ext cx="1455420" cy="403560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="E46C0A"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>ติว </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>HCI</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>186420</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>14940</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="271" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7940040" y="16405860"/>
+          <a:ext cx="2853420" cy="403560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="E46C0A"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>เรียนอาชีพ</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>441660</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="272" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10828020" y="16390620"/>
+          <a:ext cx="1607820" cy="403560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="E46C0A"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>ตามผลสหกิจ</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>396240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="273" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5745480" y="14157960"/>
+          <a:ext cx="1447800" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>relax</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>624840</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="274" name="สี่เหลี่ยมผืนผ้า 273"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9906000" y="14142720"/>
+          <a:ext cx="1836420" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>นอนที่สนามบินมั้ย</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>?</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>(คุยให้เหตุผลกับพ่อแม่ก่อน)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>434340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>411480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="275" name="สี่เหลี่ยมผืนผ้า 274"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4648200" y="14577060"/>
+          <a:ext cx="944880" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เดินทาง</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t> + Pack </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>กระเป๋า</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>426720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>403860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="277" name="สี่เหลี่ยมผืนผ้า 276"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14775180" y="14127480"/>
+          <a:ext cx="944880" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เดินทาง</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t> + Pack </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>กระเป๋า</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="278" name="สี่เหลี่ยมผืนผ้า 277"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5768340" y="15057120"/>
+          <a:ext cx="7193280" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>Universal</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="279" name="สี่เหลี่ยมผืนผ้า 278"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5783580" y="15468600"/>
+          <a:ext cx="4267200" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>Garden</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>434340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="280" name="สี่เหลี่ยมผืนผ้า 279"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10408920" y="15483840"/>
+          <a:ext cx="1920240" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>Travel around</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="281" name="สี่เหลี่ยมผืนผ้า 280"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12763500" y="14607540"/>
+          <a:ext cx="952500" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>Check In Hotel</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>434340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="282" name="สี่เหลี่ยมผืนผ้า 281"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6896100" y="15925800"/>
+          <a:ext cx="952500" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>Check Out Hotel</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="283" name="สี่เหลี่ยมผืนผ้า 282"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4968240" y="15941040"/>
+          <a:ext cx="1432560" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>Relax, enjoy the life more</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="284" name="สี่เหลี่ยมผืนผ้า 283"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13716000" y="14584680"/>
+          <a:ext cx="1432560" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>Relax Enjoy the new view</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="285" name="สี่เหลี่ยมผืนผ้า 284"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8031480" y="15933420"/>
+          <a:ext cx="1920240" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>Travel around or just go to airport if over concern</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>426720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="286" name="สี่เหลี่ยมผืนผ้า 285"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13975080" y="15034260"/>
+          <a:ext cx="1104900" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>Relax </a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="287" name="สี่เหลี่ยมผืนผ้า 286"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13373100" y="15468600"/>
+          <a:ext cx="1104900" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>Relax </a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="288" name="สี่เหลี่ยมผืนผ้า 287"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12306300" y="15514320"/>
+          <a:ext cx="396240" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>กินข้าวแ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>624840</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>426720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>403860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="289" name="สี่เหลี่ยมผืนผ้า 288"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9906000" y="15453360"/>
+          <a:ext cx="396240" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>กินข้าวแ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="290" name="สี่เหลี่ยมผืนผ้า 289"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7772400" y="15933420"/>
+          <a:ext cx="396240" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>กินข้าวแ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="291" name="สี่เหลี่ยมผืนผ้า 290"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14691360" y="15933420"/>
+          <a:ext cx="640080" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เดินทาง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>426720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="293" name="สี่เหลี่ยมผืนผ้า 292"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4572000" y="7520940"/>
+          <a:ext cx="632460" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>อาบน้ำ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>กินข้าว</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>632460</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>426720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="295" name="สี่เหลี่ยมผืนผ้า 294"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4610100" y="7962900"/>
+          <a:ext cx="632460" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>อาบน้ำ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>กินข้าว</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>632460</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="296" name="สี่เหลี่ยมผืนผ้า 295"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4640580" y="11932920"/>
+          <a:ext cx="632460" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>อาบน้ำ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>กินข้าว</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="297" name="สี่เหลี่ยมผืนผ้า 296"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4678680" y="12374880"/>
+          <a:ext cx="632460" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>อาบน้ำ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>กินข้าว</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>632460</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="298" name="สี่เหลี่ยมผืนผ้า 297"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4640580" y="16352520"/>
+          <a:ext cx="632460" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>อาบน้ำ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>กินข้าว</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="299" name="สี่เหลี่ยมผืนผ้า 298"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4678680" y="16794480"/>
+          <a:ext cx="632460" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>อาบน้ำ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>กินข้าว</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>632460</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="300" name="สี่เหลี่ยมผืนผ้า 299"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4640580" y="20772120"/>
+          <a:ext cx="632460" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>อาบน้ำ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>กินข้าว</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="301" name="สี่เหลี่ยมผืนผ้า 300"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4678680" y="21214080"/>
+          <a:ext cx="632460" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>อาบน้ำ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>กินข้าว</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="302" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5989320" y="16421100"/>
+          <a:ext cx="1447800" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>relax</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="303" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6019800" y="16832580"/>
+          <a:ext cx="1447800" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>relax</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>388620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="304" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5455920" y="18569940"/>
+          <a:ext cx="1447800" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>relax</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>426720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="305" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5996940" y="11978640"/>
+          <a:ext cx="1447800" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>relax</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>411480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="306" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5996940" y="12405360"/>
+          <a:ext cx="1447800" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>relax</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>426720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="307" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6073140" y="5791200"/>
+          <a:ext cx="1447800" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>relax</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>403860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="308" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6065520" y="6652260"/>
+          <a:ext cx="1447800" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>relax</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>403860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="309" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11681460" y="6652260"/>
+          <a:ext cx="1447800" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>relax</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>381000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="310" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6073140" y="6187440"/>
+          <a:ext cx="1447800" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>relax do</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> the kirby 64</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>426720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="311" name="สี่เหลี่ยมผืนผ้า 310"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5311140" y="6195060"/>
+          <a:ext cx="640080" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เดินทาง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>434340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>14760</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>395820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="312" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4846320" y="6179820"/>
+          <a:ext cx="471960" cy="403440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="77933C"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>คอมใหญ่</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>388620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="313" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6858000" y="9730740"/>
+          <a:ext cx="1447800" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>relax</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>418800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="314" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11041380" y="7970520"/>
+          <a:ext cx="1455420" cy="403560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="E46C0A"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>ติว </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>HCI</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="315" name="สี่เหลี่ยมผืนผ้า 314"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5349240" y="7536180"/>
+          <a:ext cx="640080" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เดินทาง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="316" name="สี่เหลี่ยมผืนผ้า 315"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5387340" y="7955280"/>
+          <a:ext cx="640080" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เดินทาง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>411480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="317" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6187440" y="11521440"/>
+          <a:ext cx="1447800" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>relax</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="318" name="สี่เหลี่ยมผืนผ้า 317"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7825740" y="11490960"/>
+          <a:ext cx="2834640" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>Pack </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ของ และคอม ใส่กระเป๋า</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
+            <a:t> (ห้ามใช้กระเป๋าเดินทาง)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
+            <a:t>มีบอกที่ขีดเส้นใต้ใน </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>to do list</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>381000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="319" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8892540" y="10165080"/>
+          <a:ext cx="1447800" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>relax</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>403860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>365460</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="320" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10447020" y="10126980"/>
+          <a:ext cx="929640" cy="403560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="E46C0A"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>ตามที่สหกิจที่มี</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>640080</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>434040</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="321" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7269480" y="5334000"/>
+          <a:ext cx="861060" cy="403560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="E46C0A"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>ตามที่สหกิจที่มี</a:t>
           </a:r>
           <a:endParaRPr/>
         </a:p>
@@ -53341,8 +57298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="M38" sqref="M38"/>
+    <sheetView tabSelected="1" topLeftCell="E14" workbookViewId="0">
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Time Table May 2018.xlsx
+++ b/Time Table May 2018.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="78">
   <si>
     <t>Time</t>
   </si>
@@ -247,6 +247,9 @@
   <si>
     <t>use thai time</t>
   </si>
+  <si>
+    <t>&lt;-- Nail Trim every fortnight</t>
+  </si>
 </sst>
 </file>
 
@@ -10959,16 +10962,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>268877</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>439783</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>244928</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>434340</xdr:rowOff>
+      <xdr:rowOff>412568</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10977,7 +10980,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12603480" y="14599920"/>
+          <a:off x="13549448" y="10258697"/>
           <a:ext cx="640080" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11130,16 +11133,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>37011</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
+      <xdr:rowOff>18506</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>52252</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>426720</xdr:rowOff>
+      <xdr:rowOff>437606</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11148,8 +11151,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13578840" y="14592300"/>
-          <a:ext cx="678180" cy="419100"/>
+          <a:off x="14645640" y="10283735"/>
+          <a:ext cx="679269" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11700,16 +11703,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>312420</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>660763</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>428898</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>394064</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>434340</xdr:rowOff>
+      <xdr:rowOff>401683</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11718,8 +11721,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12245340" y="14599920"/>
-          <a:ext cx="396240" cy="419100"/>
+          <a:off x="13277306" y="10247812"/>
+          <a:ext cx="397329" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11757,14 +11760,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>277586</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>411480</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>41365</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>419100</xdr:rowOff>
     </xdr:to>
@@ -11775,8 +11778,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13243560" y="14584680"/>
-          <a:ext cx="426720" cy="419100"/>
+          <a:off x="14222186" y="10265229"/>
+          <a:ext cx="427808" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15018,15 +15021,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:colOff>364672</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>389708</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>296092</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>366849</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -15035,8 +15038,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8961120" y="9753600"/>
-          <a:ext cx="1257300" cy="419100"/>
+          <a:off x="8997043" y="9762308"/>
+          <a:ext cx="1259478" cy="423455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15100,16 +15103,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>655320</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>632460</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>23948</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>55517</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>1088</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -15118,8 +15121,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6621780" y="7094220"/>
-          <a:ext cx="1965960" cy="419100"/>
+          <a:off x="9320348" y="12106003"/>
+          <a:ext cx="1969226" cy="423454"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15159,7 +15162,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1000" baseline="0"/>
-            <a:t>Web App , 507</a:t>
+            <a:t>Web App , 203</a:t>
           </a:r>
           <a:endParaRPr lang="th-TH" sz="1000"/>
         </a:p>
@@ -15765,8 +15768,8 @@
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>224520</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>108858</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>7320</xdr:rowOff>
     </xdr:to>
@@ -15777,8 +15780,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7978140" y="11978640"/>
-          <a:ext cx="2853420" cy="403560"/>
+          <a:off x="7991203" y="12096206"/>
+          <a:ext cx="750026" cy="407914"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16186,14 +16189,14 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:colOff>600891</xdr:colOff>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>593880</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>408822</xdr:colOff>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>403440</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -16203,7 +16206,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4762500" y="7071360"/>
+          <a:off x="5249091" y="12050486"/>
           <a:ext cx="471960" cy="403440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16479,7 +16482,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="E46C0A"/>
+          <a:schemeClr val="accent2"/>
         </a:solidFill>
         <a:ln w="25560">
           <a:solidFill>
@@ -16539,16 +16542,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>140700</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>426420</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>604158</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>66404</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>630557</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>23650</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -16557,8 +16560,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10058400" y="6210300"/>
-          <a:ext cx="2015220" cy="403560"/>
+          <a:off x="9900558" y="10777947"/>
+          <a:ext cx="2018485" cy="403560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19691,16 +19694,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>579119</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>413659</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>37012</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>396240</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>381000</xdr:rowOff>
+      <xdr:rowOff>348344</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -19709,8 +19712,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8892540" y="10165080"/>
-          <a:ext cx="1447800" cy="381000"/>
+          <a:off x="15187748" y="10232573"/>
+          <a:ext cx="1449978" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19760,15 +19763,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>502920</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>403860</xdr:rowOff>
+      <xdr:colOff>437606</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>55516</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>365460</xdr:rowOff>
+      <xdr:colOff>41366</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>17117</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -19777,8 +19780,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10447020" y="10126980"/>
-          <a:ext cx="929640" cy="403560"/>
+          <a:off x="10398035" y="10320745"/>
+          <a:ext cx="931817" cy="407915"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19835,16 +19838,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>640080</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>434040</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>357051</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>30481</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>434041</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -19853,8 +19856,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7269480" y="5334000"/>
-          <a:ext cx="861060" cy="403560"/>
+          <a:off x="10317480" y="9849395"/>
+          <a:ext cx="863237" cy="403560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19886,6 +19889,802 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>ตามที่สหกิจที่มี</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>403860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>381000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="322" name="สี่เหลี่ยมผืนผ้า 321"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15544800" y="10568940"/>
+          <a:ext cx="640080" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ตัดเล็บ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>434340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>411480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="323" name="สี่เหลี่ยมผืนผ้า 322"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15659100" y="20322540"/>
+          <a:ext cx="640080" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ตัดเล็บ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>547552</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>478972</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>396240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="324" name="สี่เหลี่ยมผืนผ้า 323"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15156181" y="5774871"/>
+          <a:ext cx="1259477" cy="423455"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>สร้าง </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>Ritual </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>สำหรับ ตอนอยู่สิงค์โปร์</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>559525</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9797</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>490945</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>433251</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="325" name="สี่เหลี่ยมผืนผ้า 324"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15168154" y="6258197"/>
+          <a:ext cx="1259477" cy="423454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>สร้าง </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>Ritual </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>สำหรับ ตอนสหกิจ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>Part 1</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>544286</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>35922</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>391886</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>787</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="327" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7848600" y="5391693"/>
+          <a:ext cx="1175657" cy="411180"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="E46C0A"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>ทำ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>front-end</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>326572</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>21771</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>326571</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>425331</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="328" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8958943" y="10287000"/>
+          <a:ext cx="1328057" cy="403560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="E46C0A"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>ประสานงาน </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Web App </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>กับปราง</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>179614</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>6531</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>651574</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>409971</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="329" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4827814" y="10271760"/>
+          <a:ext cx="471960" cy="403440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="77933C"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>คอมใหญ่</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>56605</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>3265</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>33746</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>422365</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="326" name="สี่เหลี่ยมผืนผ้า 325"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11345091" y="10268494"/>
+          <a:ext cx="1969226" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เตรียม </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>Hackaton Web App</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>403560</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="330" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6281058" y="5355771"/>
+          <a:ext cx="1328056" cy="403560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="E46C0A"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>ทำใบนัดอันใหม่ที่ คลินิกเสนานิเวช</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>379912</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>501832</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>435429</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="331" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7684226" y="5410200"/>
+          <a:ext cx="1449977" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>relax</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>119742</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>438693</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>631370</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>403558</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="332" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14064342" y="5794464"/>
+          <a:ext cx="1175657" cy="411180"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="E46C0A"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>ทำ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>front-end</a:t>
           </a:r>
           <a:endParaRPr/>
         </a:p>
@@ -57296,10 +58095,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y1000"/>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E14" workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W15" sqref="W15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -57849,7 +58648,7 @@
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
     </row>
-    <row r="17" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>48</v>
       </c>
@@ -57878,7 +58677,7 @@
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
     </row>
-    <row r="18" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>49</v>
       </c>
@@ -57907,7 +58706,7 @@
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
     </row>
-    <row r="19" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>50</v>
       </c>
@@ -57936,8 +58735,8 @@
       <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
     </row>
-    <row r="20" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43221</v>
       </c>
@@ -57968,7 +58767,7 @@
       <c r="X21" s="13"/>
       <c r="Y21" s="14"/>
     </row>
-    <row r="22" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>8</v>
       </c>
@@ -58045,7 +58844,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>51</v>
       </c>
@@ -58074,7 +58873,7 @@
       <c r="X23" s="2"/>
       <c r="Y23" s="2"/>
     </row>
-    <row r="24" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>52</v>
       </c>
@@ -58103,7 +58902,7 @@
       <c r="X24" s="2"/>
       <c r="Y24" s="2"/>
     </row>
-    <row r="25" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>53</v>
       </c>
@@ -58131,8 +58930,11 @@
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
       <c r="Y25" s="2"/>
+      <c r="Z25" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="26" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>54</v>
       </c>
@@ -58161,7 +58963,7 @@
       <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
     </row>
-    <row r="27" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>55</v>
       </c>
@@ -58190,7 +58992,7 @@
       <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
     </row>
-    <row r="28" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>56</v>
       </c>
@@ -58219,7 +59021,7 @@
       <c r="X28" s="2"/>
       <c r="Y28" s="2"/>
     </row>
-    <row r="29" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>57</v>
       </c>
@@ -58248,8 +59050,8 @@
       <c r="X29" s="2"/>
       <c r="Y29" s="2"/>
     </row>
-    <row r="30" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43221</v>
       </c>
@@ -58280,7 +59082,7 @@
       <c r="X31" s="13"/>
       <c r="Y31" s="14"/>
     </row>
-    <row r="32" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>8</v>
       </c>

--- a/Time Table May 2018.xlsx
+++ b/Time Table May 2018.xlsx
@@ -5471,8 +5471,8 @@
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>426720</xdr:rowOff>
     </xdr:to>
@@ -5483,12 +5483,17 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="693420" y="1333500"/>
-          <a:ext cx="3307080" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
+          <a:off x="694509" y="14735991"/>
+          <a:ext cx="2571205" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -6192,14 +6197,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>305889</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>321129</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>419100</xdr:rowOff>
     </xdr:to>
@@ -6210,8 +6215,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13586460" y="883920"/>
-          <a:ext cx="678180" cy="419100"/>
+          <a:off x="12258403" y="14282057"/>
+          <a:ext cx="679269" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6311,16 +6316,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>37011</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>414745</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>13063</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>655320</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>391885</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6329,8 +6334,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12611100" y="906780"/>
-          <a:ext cx="640080" cy="419100"/>
+          <a:off x="11325497" y="14250488"/>
+          <a:ext cx="640080" cy="423454"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6963,73 +6968,73 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>378822</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>443048</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>111033</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>415834</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="688" name="สี่เหลี่ยมผืนผ้า 687"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11003279" y="14278791"/>
+          <a:ext cx="396240" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>กินข้าวแ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>648789</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>412569</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>259080</xdr:colOff>
+      <xdr:colOff>412569</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>655320</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>426720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="688" name="สี่เหลี่ยมผืนผ้า 687"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12192000" y="891540"/>
-          <a:ext cx="396240" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>กินข้าวแ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>434340</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>358140</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>411480</xdr:rowOff>
+      <xdr:rowOff>389709</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7038,8 +7043,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13190220" y="876300"/>
-          <a:ext cx="426720" cy="419100"/>
+          <a:off x="11937275" y="14248312"/>
+          <a:ext cx="427808" cy="423454"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10848,14 +10853,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>358140</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -10866,8 +10871,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13639800" y="15491460"/>
-          <a:ext cx="640080" cy="419100"/>
+          <a:off x="12845142" y="11180717"/>
+          <a:ext cx="641169" cy="423454"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11304,16 +11309,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>185058</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>435428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>161109</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>640080</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>419100</xdr:rowOff>
+      <xdr:rowOff>408214</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11322,7 +11327,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14584680" y="15468600"/>
+          <a:off x="14129658" y="11146971"/>
           <a:ext cx="640080" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11532,16 +11537,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>434340</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>655320</xdr:colOff>
+      <xdr:colOff>446315</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>411480</xdr:rowOff>
+      <xdr:rowOff>20683</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>56606</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>444137</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11550,8 +11555,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14965680" y="16786860"/>
-          <a:ext cx="937260" cy="419100"/>
+          <a:off x="15718972" y="12517483"/>
+          <a:ext cx="938348" cy="423454"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11931,16 +11936,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>354875</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>289560</xdr:colOff>
+      <xdr:colOff>118655</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>419100</xdr:rowOff>
+      <xdr:rowOff>429986</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11949,8 +11954,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14211300" y="15468600"/>
-          <a:ext cx="426720" cy="419100"/>
+          <a:off x="13635446" y="11168743"/>
+          <a:ext cx="427809" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13146,63 +13151,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>358140</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="827" name="สี่เหลี่ยมผืนผ้า 826"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13639800" y="15491460"/>
-          <a:ext cx="640080" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>เดินทาง</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
       <xdr:row>12</xdr:row>
@@ -13603,13 +13551,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>239486</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>640080</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>215538</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>419100</xdr:rowOff>
     </xdr:to>
@@ -13620,7 +13568,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14584680" y="15468600"/>
+          <a:off x="14848115" y="6694714"/>
           <a:ext cx="640080" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14230,15 +14178,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>289560</xdr:colOff>
+      <xdr:colOff>474617</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>402772</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>238397</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>419100</xdr:rowOff>
+      <xdr:rowOff>375558</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14247,8 +14195,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14211300" y="15468600"/>
-          <a:ext cx="426720" cy="419100"/>
+          <a:off x="14419217" y="6651172"/>
+          <a:ext cx="427809" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14678,6 +14626,11 @@
             <a:rPr lang="th-TH" sz="800"/>
             <a:t>หากนอนที่สนามบิน มันเร็วก็จริง แต่เสียอย่างคือ มื้อเช้าจะแพง อยู่ที่สถานการณ์การเงิน โอเคมั้ย</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="800"/>
+            <a:t> https://travel.kapook.com/view104611.html </a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="800"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -14686,13 +14639,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
+      <xdr:colOff>468087</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>10888</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>426720</xdr:rowOff>
     </xdr:to>
@@ -14703,8 +14656,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5905500" y="14592300"/>
-          <a:ext cx="1257300" cy="419100"/>
+          <a:off x="5780316" y="14735991"/>
+          <a:ext cx="1534886" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14742,7 +14695,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1000" baseline="0"/>
-            <a:t> in in DMK Airport</a:t>
+            <a:t> in in DMK Airport  (Passport + E-Ticket) </a:t>
           </a:r>
           <a:endParaRPr lang="th-TH" sz="1000"/>
         </a:p>
@@ -14998,11 +14951,26 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>แลกเงิน </a:t>
+            <a:t>แลกเงิน</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1000"/>
-            <a:t>SGD 4800</a:t>
+            <a:t> 210</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>SGD </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>5100</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1000" baseline="0"/>
@@ -15085,7 +15053,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1000"/>
-            <a:t>4800</a:t>
+            <a:t>5100</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1000" baseline="0"/>
@@ -15427,14 +15395,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>157843</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>624840</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>134983</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>434340</xdr:rowOff>
     </xdr:to>
@@ -15445,8 +15413,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5288280" y="7086600"/>
-          <a:ext cx="640080" cy="419100"/>
+          <a:off x="7462157" y="7156269"/>
+          <a:ext cx="641169" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16123,16 +16091,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>281940</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>426720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>403860</xdr:rowOff>
+      <xdr:rowOff>185056</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>391886</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>44630</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -16141,8 +16109,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10226040" y="6614160"/>
-          <a:ext cx="1318260" cy="419100"/>
+          <a:off x="6052458" y="6879770"/>
+          <a:ext cx="2307771" cy="305889"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16178,7 +16146,11 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1000" baseline="0"/>
-            <a:t> 1111</a:t>
+            <a:t> 1111 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
+            <a:t>(แคค่ทางโทรศัพท์ก็พอ)</a:t>
           </a:r>
           <a:endParaRPr lang="th-TH" sz="1000"/>
         </a:p>
@@ -16457,16 +16429,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>251460</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>567146</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>277860</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>434040</xdr:rowOff>
+      <xdr:rowOff>422365</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>593546</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>379611</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -16475,8 +16447,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7543800" y="5775960"/>
-          <a:ext cx="2015220" cy="403560"/>
+          <a:off x="9199517" y="6224451"/>
+          <a:ext cx="2018486" cy="403560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16864,14 +16836,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>441960</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>563880</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>396240</xdr:rowOff>
     </xdr:to>
@@ -16882,8 +16854,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5745480" y="14157960"/>
-          <a:ext cx="1447800" cy="381000"/>
+          <a:off x="6113417" y="14297297"/>
+          <a:ext cx="1449977" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16932,16 +16904,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>624840</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>505097</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>57694</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>352698</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>472440</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>419100</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -16950,8 +16922,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9906000" y="14142720"/>
-          <a:ext cx="1836420" cy="419100"/>
+          <a:off x="7145383" y="13893437"/>
+          <a:ext cx="1839686" cy="426720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17075,16 +17047,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>332016</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>165463</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>642258</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>426720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>472440</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>403860</xdr:rowOff>
+      <xdr:rowOff>142603</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -17093,8 +17065,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14775180" y="14127480"/>
-          <a:ext cx="944880" cy="419100"/>
+          <a:off x="8964387" y="13554892"/>
+          <a:ext cx="2302328" cy="423454"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17128,6 +17100,14 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ได้ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>... </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
             <a:t>เดินทาง</a:t>
           </a:r>
           <a:r>
@@ -17137,6 +17117,22 @@
           <a:r>
             <a:rPr lang="th-TH" sz="1000"/>
             <a:t>กระเป๋า</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ถึง </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>22 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>โมง (ต้องคำนึงเรื่องความปลอดภภภัยมากๆ)</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -18878,16 +18874,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>357051</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:rowOff>56606</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>478971</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>426720</xdr:rowOff>
+      <xdr:rowOff>437606</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -18896,8 +18892,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6073140" y="5791200"/>
-          <a:ext cx="1447800" cy="381000"/>
+          <a:off x="8325394" y="5858692"/>
+          <a:ext cx="1449977" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18947,15 +18943,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
+      <xdr:colOff>490948</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>316774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>272145</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>403860</xdr:rowOff>
+      <xdr:rowOff>251460</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -18964,8 +18960,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6065520" y="6652260"/>
-          <a:ext cx="1447800" cy="381000"/>
+          <a:off x="6467205" y="6565174"/>
+          <a:ext cx="1109254" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19080,27 +19076,84 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>138250</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>432163</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>404949</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="311" name="สี่เหลี่ยมผืนผ้า 310"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7442564" y="6234249"/>
+          <a:ext cx="640080" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เดินทาง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>381000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="310" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6073140" y="6187440"/>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>388620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="313" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6858000" y="9730740"/>
           <a:ext cx="1447800" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -19132,7 +19185,908 @@
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>relax do</a:t>
+            <a:t>relax</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>418800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="314" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11041380" y="7970520"/>
+          <a:ext cx="1455420" cy="403560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="E46C0A"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>ติว </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>HCI</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>56607</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>425631</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>33746</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>402771</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="315" name="สี่เหลี่ยมผืนผ้า 314"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7360921" y="7566660"/>
+          <a:ext cx="641168" cy="423454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เดินทาง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>638992</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>616132</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>429986</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="316" name="สี่เหลี่ยมผืนผ้า 315"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7279278" y="8044543"/>
+          <a:ext cx="641168" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เดินทาง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>411480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="317" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6187440" y="11521440"/>
+          <a:ext cx="1447800" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>relax</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="318" name="สี่เหลี่ยมผืนผ้า 317"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7825740" y="11490960"/>
+          <a:ext cx="2834640" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>Pack </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ของ และคอม ใส่กระเป๋า</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
+            <a:t> (ห้ามใช้กระเป๋าเดินทาง)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
+            <a:t>มีบอกที่ขีดเส้นใต้ใน </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>to do list</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>579119</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>413659</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>37012</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>348344</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="319" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15187748" y="10232573"/>
+          <a:ext cx="1449978" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>relax</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>89263</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>11974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>357052</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>419889</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="320" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11377749" y="11169831"/>
+          <a:ext cx="931817" cy="407915"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="E46C0A"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>ตามที่สหกิจที่มี</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>357051</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>30481</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>434041</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="321" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10317480" y="9849395"/>
+          <a:ext cx="863237" cy="403560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="E46C0A"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>ตามที่สหกิจที่มี</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>3265</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>436518</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>644434</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>413658</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="322" name="สี่เหลี่ยมผืนผ้า 321"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15939951" y="10701747"/>
+          <a:ext cx="641169" cy="423454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ตัดเล็บ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>434340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>411480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="323" name="สี่เหลี่ยมผืนผ้า 322"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15659100" y="20322540"/>
+          <a:ext cx="640080" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ตัดเล็บ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>547552</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>478972</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>396240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="324" name="สี่เหลี่ยมผืนผ้า 323"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15156181" y="5774871"/>
+          <a:ext cx="1259477" cy="423455"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>สร้าง </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>Ritual </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>สำหรับ ตอนอยู่สิงค์โปร์</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>559525</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9797</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>490945</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>433251</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="325" name="สี่เหลี่ยมผืนผ้า 324"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15168154" y="6258197"/>
+          <a:ext cx="1259477" cy="423454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>สร้าง </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>Ritual </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>สำหรับ ตอนสหกิจ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>Part 1</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>544286</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>35922</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>391886</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>787</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="327" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7848600" y="5391693"/>
+          <a:ext cx="1175657" cy="411180"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="E46C0A"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>ทำ </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0">
@@ -19141,7 +20095,7 @@
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t> the kirby 64</a:t>
+            <a:t>front-end</a:t>
           </a:r>
           <a:endParaRPr/>
         </a:p>
@@ -19153,62 +20107,13 @@
           </a:pPr>
           <a:endParaRPr/>
         </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>426720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="311" name="สี่เหลี่ยมผืนผ้า 310"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5311140" y="6195060"/>
-          <a:ext cx="640080" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>เดินทาง</a:t>
-          </a:r>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -19216,25 +20121,146 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>326572</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>21771</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>315686</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>425331</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="328" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8958943" y="10287000"/>
+          <a:ext cx="1981200" cy="403560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="E46C0A"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>ประสานงาน </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Web App </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>กับปราง</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>เรื่อง </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Controller</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>434340</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>14760</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>395820</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="312" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4846320" y="6179820"/>
+      <xdr:colOff>179614</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>6531</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>651574</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>409971</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="329" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4827814" y="10271760"/>
           <a:ext cx="471960" cy="403440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -19274,28 +20300,169 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>56605</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>3265</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>33746</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>422365</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="326" name="สี่เหลี่ยมผืนผ้า 325"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11345091" y="10268494"/>
+          <a:ext cx="1969226" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เตรียม </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>Hackaton Web App</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>388620</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="313" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6858000" y="9730740"/>
-          <a:ext cx="1447800" cy="381000"/>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>43542</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>788</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="330" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6585857" y="5845628"/>
+          <a:ext cx="1328056" cy="403560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="E46C0A"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>ทำใบนัดอันใหม่ที่ คลินิกเสนานิเวช</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>379912</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>501832</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>435429</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="331" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7684226" y="5410200"/>
+          <a:ext cx="1449977" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19344,26 +20511,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>434340</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>563880</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>418800</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="314" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11041380" y="7970520"/>
-          <a:ext cx="1455420" cy="403560"/>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>119742</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>438693</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>631370</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>403558</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="332" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14064342" y="5794464"/>
+          <a:ext cx="1175657" cy="411180"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19388,22 +20555,22 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr lang="th-TH" sz="1100">
+            <a:rPr lang="th-TH" sz="1100" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>ติว </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:t>ทำ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>HCI</a:t>
+            <a:t>front-end</a:t>
           </a:r>
           <a:endParaRPr/>
         </a:p>
@@ -19427,142 +20594,28 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="315" name="สี่เหลี่ยมผืนผ้า 314"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5349240" y="7536180"/>
-          <a:ext cx="640080" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>เดินทาง</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>419100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="316" name="สี่เหลี่ยมผืนผ้า 315"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5387340" y="7955280"/>
-          <a:ext cx="640080" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>เดินทาง</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>411480</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="317" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6187440" y="11521440"/>
-          <a:ext cx="1447800" cy="381000"/>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>466997</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>588917</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>413657</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="333" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11091454" y="6281057"/>
+          <a:ext cx="1449977" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19611,26 +20664,189 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>263434</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>427808</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>240574</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>400594</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="334" name="สี่เหลี่ยมผืนผ้า 333"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14208034" y="9800408"/>
+          <a:ext cx="1969226" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>รีบนอน</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>383177</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>166552</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>419100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="318" name="สี่เหลี่ยมผืนผ้า 317"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7825740" y="11490960"/>
-          <a:ext cx="2834640" cy="419100"/>
+      <xdr:colOff>360317</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>139338</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="335" name="สี่เหลี่ยมผืนผ้า 334"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9015548" y="14002295"/>
+          <a:ext cx="1969226" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ไม่ดีกว่า</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>...</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>รีบนอน</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t> 18</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
+            <a:t>โมง ตื่น ตี </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>4-5 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
+            <a:t>ออก </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>6-7 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
+            <a:t>โมง</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>547552</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>5443</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>478972</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>428898</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="336" name="สี่เหลี่ยมผืนผ้า 335"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8515895" y="6700157"/>
+          <a:ext cx="1259477" cy="423455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19663,28 +20879,12 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>กฏในการนำของเข้าสนามบิน</a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="en-US" sz="1000"/>
-            <a:t>Pack </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>ของ และคอม ใส่กระเป๋า</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
-            <a:t> (ห้ามใช้กระเป๋าเดินทาง)</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000" baseline="0"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
-            <a:t>มีบอกที่ขีดเส้นใต้ใน </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000" baseline="0"/>
-            <a:t>to do list</a:t>
+            <a:t>??</a:t>
           </a:r>
           <a:endParaRPr lang="th-TH" sz="1000"/>
         </a:p>
@@ -19694,94 +20894,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>579119</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>413659</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>37012</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>348344</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="319" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15187748" y="10232573"/>
-          <a:ext cx="1449978" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-        <a:ln w="25560">
-          <a:solidFill>
-            <a:srgbClr val="3A5F8B"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>relax</a:t>
-          </a:r>
-          <a:endParaRPr/>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:endParaRPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>437606</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>55516</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>41366</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>17117</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="320" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10398035" y="10320745"/>
-          <a:ext cx="931817" cy="407915"/>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>174170</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>427806</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>21770</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>392672</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="338" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486399" y="6229892"/>
+          <a:ext cx="1175657" cy="411180"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19806,13 +20938,22 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr lang="th-TH" sz="1100">
+            <a:rPr lang="th-TH" sz="1100" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>ตามที่สหกิจที่มี</a:t>
+            <a:t>ทำ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>front-end</a:t>
           </a:r>
           <a:endParaRPr/>
         </a:p>
@@ -19836,28 +20977,95 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>603068</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>443049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>261257</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>415834</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="339" name="สี่เหลี่ยมผืนผ้า 338"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14547668" y="7137763"/>
+          <a:ext cx="2314303" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เตรียมเสื้อผ้าที่เหมาะสมที่สุดสำหรับทริป</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
+            <a:t> เก็ยไว้สำหรับวันนั้น เผื่อเวลา</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>357051</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>30481</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>556260</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>434041</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="321" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10317480" y="9849395"/>
-          <a:ext cx="863237" cy="403560"/>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>163284</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>14148</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>10884</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>425328</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="340" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5475513" y="7155177"/>
+          <a:ext cx="1175657" cy="411180"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19882,13 +21090,22 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr lang="th-TH" sz="1100">
+            <a:rPr lang="th-TH" sz="1100" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>ตามที่สหกิจที่มี</a:t>
+            <a:t>ทำ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>front-end</a:t>
           </a:r>
           <a:endParaRPr/>
         </a:p>
@@ -19912,290 +21129,27 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>403860</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>381000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="322" name="สี่เหลี่ยมผืนผ้า 321"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15544800" y="10568940"/>
-          <a:ext cx="640080" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>ตัดเล็บ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>411480</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>434340</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>388620</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>411480</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="323" name="สี่เหลี่ยมผืนผ้า 322"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15659100" y="20322540"/>
-          <a:ext cx="640080" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>ตัดเล็บ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>547552</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>419100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>478972</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>396240</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="324" name="สี่เหลี่ยมผืนผ้า 323"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15156181" y="5774871"/>
-          <a:ext cx="1259477" cy="423455"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>สร้าง </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000"/>
-            <a:t>Ritual </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>สำหรับ ตอนอยู่สิงค์โปร์</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>559525</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>9797</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>490945</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>433251</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="325" name="สี่เหลี่ยมผืนผ้า 324"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15168154" y="6258197"/>
-          <a:ext cx="1259477" cy="423454"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>สร้าง </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000"/>
-            <a:t>Ritual </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>สำหรับ ตอนสหกิจ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000" baseline="0"/>
-            <a:t>Part 1</a:t>
-          </a:r>
-          <a:endParaRPr lang="th-TH" sz="1000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>544286</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>35922</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>391886</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>787</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="327" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7848600" y="5391693"/>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>315684</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>14150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>163284</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>425330</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="342" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10276113" y="6708864"/>
           <a:ext cx="1175657" cy="411180"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -20262,119 +21216,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>326572</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>21771</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>326571</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>425331</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="328" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8958943" y="10287000"/>
-          <a:ext cx="1328057" cy="403560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="E46C0A"/>
-        </a:solidFill>
-        <a:ln w="25560">
-          <a:solidFill>
-            <a:srgbClr val="3A5F8B"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>ประสานงาน </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>Web App </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>กับปราง</a:t>
-          </a:r>
-          <a:endParaRPr/>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:endParaRPr/>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:endParaRPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>179614</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>6531</xdr:rowOff>
+      <xdr:colOff>120832</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>2178</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>651574</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>409971</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="329" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4827814" y="10271760"/>
+      <xdr:colOff>592792</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>405618</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="343" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4769032" y="6696892"/>
           <a:ext cx="471960" cy="403440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -20416,32 +21276,215 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>56605</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>3265</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>29391</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>48986</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>6531</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>21771</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="344" name="สี่เหลี่ยมผืนผ้า 343"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5341620" y="6743700"/>
+          <a:ext cx="641168" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เดินทาง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>33746</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>422365</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="326" name="สี่เหลี่ยมผืนผ้า 325"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11345091" y="10268494"/>
+      <xdr:colOff>377736</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>410391</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>353787</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>383177</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="345" name="สี่เหลี่ยมผืนผ้า 344"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13658307" y="6658791"/>
+          <a:ext cx="640080" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เดินทาง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>161108</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>18504</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>424541</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>437604</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="347" name="สี่เหลี่ยมผืนผ้า 346"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12777651" y="14300561"/>
+          <a:ext cx="3583576" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100"/>
+            <a:t>นอน</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> / Sleep</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>187235</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>3266</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>164375</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>422366</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="348" name="สี่เหลี่ยมผืนผ้า 347"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13467806" y="12500066"/>
           <a:ext cx="1969226" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent2"/>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -20471,7 +21514,15 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1000"/>
-            <a:t>Hackaton Web App</a:t>
+            <a:t>Fic </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>และ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
+            <a:t> เพลง ลง โทรศัพท์ ไว้อ่านฟังบนเคครื่องบิน</a:t>
           </a:r>
           <a:endParaRPr lang="th-TH" sz="1000"/>
         </a:p>
@@ -20479,230 +21530,279 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>304801</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>176348</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>3266</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>87086</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>422366</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="349" name="สี่เหลี่ยมผืนผ้า 348"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14120948" y="10714809"/>
+          <a:ext cx="1902824" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เตรียม </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>Fic </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>และ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
+            <a:t> เพลง ลง โทรศัพท์ ไว้อ่านฟังบนเคครื่องบิน</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>18506</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>413657</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>437606</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="350" name="สี่เหลี่ยมผืนผ้า 349"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14852469" y="11176363"/>
+          <a:ext cx="2161902" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เตรียมเสื้อผ้าที่เหมาะสมที่สุดสำหรับทริป</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
+            <a:t> เก็ยไว้สำหรับวันนั้น เผื่อเวลา</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>56606</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>57695</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>413657</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>30481</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="351" name="สี่เหลี่ยมผืนผ้า 350"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16657320" y="12554495"/>
+          <a:ext cx="1021080" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>Charge Phone</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>403560</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="330" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6281058" y="5355771"/>
-          <a:ext cx="1328056" cy="403560"/>
+      <xdr:colOff>644434</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>68581</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>468085</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>41367</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="352" name="สี่เหลี่ยมผืนผ้า 351"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7948748" y="14350638"/>
+          <a:ext cx="2479766" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="E46C0A"/>
+          <a:srgbClr val="002060"/>
         </a:solidFill>
-        <a:ln w="25560">
-          <a:solidFill>
-            <a:srgbClr val="3A5F8B"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>ทำใบนัดอันใหม่ที่ คลินิกเสนานิเวช</a:t>
-          </a:r>
-          <a:endParaRPr/>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:endParaRPr/>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:endParaRPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>379912</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>54429</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>501832</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>435429</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="331" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7684226" y="5410200"/>
-          <a:ext cx="1449977" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-        <a:ln w="25560">
-          <a:solidFill>
-            <a:srgbClr val="3A5F8B"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>relax</a:t>
-          </a:r>
-          <a:endParaRPr/>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:endParaRPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>119742</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>438693</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>631370</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>403558</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="332" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14064342" y="5794464"/>
-          <a:ext cx="1175657" cy="411180"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="E46C0A"/>
-        </a:solidFill>
-        <a:ln w="25560">
-          <a:solidFill>
-            <a:srgbClr val="3A5F8B"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>ทำ </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>front-end</a:t>
-          </a:r>
-          <a:endParaRPr/>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:endParaRPr/>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:endParaRPr/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เตรียมของ ใช้ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>Ritual </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>พิเศษ สำหรับ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>Trip</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1000"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -58097,8 +59197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W15" sqref="W15"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AA31" sqref="AA31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Time Table May 2018.xlsx
+++ b/Time Table May 2018.xlsx
@@ -463,12 +463,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -14966,16 +14966,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>251460</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>426720</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>320041</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>51164</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>251461</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>23950</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14984,8 +14984,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6949440" y="10614660"/>
-          <a:ext cx="1257300" cy="419100"/>
+          <a:off x="10944498" y="8084821"/>
+          <a:ext cx="1259477" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15023,7 +15023,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1000"/>
-            <a:t> 210</a:t>
+            <a:t> 80</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="th-TH" sz="1000"/>
@@ -15038,7 +15038,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1000"/>
-            <a:t>5100</a:t>
+            <a:t>1908</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1000" baseline="0"/>
@@ -15056,16 +15056,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>141514</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>444136</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>272143</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>30478</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>598714</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>421277</xdr:rowOff>
+      <xdr:colOff>65314</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>7619</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -15074,7 +15074,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9437914" y="9816736"/>
+          <a:off x="8904514" y="11188335"/>
           <a:ext cx="1785257" cy="423455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15117,15 +15117,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1000" baseline="0"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000"/>
-            <a:t>5100</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000" baseline="0"/>
-            <a:t> </a:t>
+            <a:t> 4000 </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="th-TH" sz="1000" baseline="0"/>
@@ -19126,16 +19118,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>446316</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>141517</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>40277</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>43545</xdr:colOff>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>421277</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>348344</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>355963</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -19144,7 +19136,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7086602" y="9793877"/>
+          <a:off x="10101946" y="9859191"/>
           <a:ext cx="566056" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -19603,16 +19595,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>19594</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>476794</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>433251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>11974</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>19594</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>218803</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>423154</xdr:rowOff>
+      <xdr:rowOff>390497</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -19621,7 +19613,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11308080" y="8053251"/>
+          <a:off x="13093337" y="8020594"/>
           <a:ext cx="863237" cy="403560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -21485,16 +21477,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>56606</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>57695</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>413657</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>30481</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>383177</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>373380</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>346166</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -21503,7 +21495,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16657320" y="12554495"/>
+          <a:off x="5031377" y="14209123"/>
           <a:ext cx="1021080" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -22554,16 +22546,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>381001</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>174171</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>402773</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>359229</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>195943</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>359230</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -22572,7 +22564,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7685315" y="9372600"/>
+          <a:off x="8371116" y="9285515"/>
           <a:ext cx="1785256" cy="892629"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -22782,6 +22774,348 @@
             </a:lnSpc>
           </a:pPr>
           <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>513805</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>435430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>635726</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>370116</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="372" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15786462" y="8022773"/>
+          <a:ext cx="1449978" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Erect sub</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>100149</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>32658</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>886098</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>413658</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="375" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16700863" y="12529458"/>
+          <a:ext cx="1449978" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Erect dom</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>23949</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>43544</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>809898</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>424544</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="380" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16624663" y="11647715"/>
+          <a:ext cx="1449978" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Erect dom</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>411478</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>555171</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>388619</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="381" name="สี่เหลี่ยมผืนผ้า 380"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6868885" y="9784078"/>
+          <a:ext cx="1654629" cy="423455"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ศึกษาทาง </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>Butterfly Garden</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>30477</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>174171</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>7618</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="382" name="สี่เหลี่ยมผืนผ้า 381"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6357257" y="10742020"/>
+          <a:ext cx="1785257" cy="423455"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ศึกษาทาง </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>Orchid</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t> Garden</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1000"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -60176,8 +60510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -60189,32 +60523,32 @@
       <c r="A1" s="1">
         <v>43221</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="15"/>
     </row>
     <row r="2" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
@@ -60507,32 +60841,32 @@
       <c r="A11" s="1">
         <v>43221</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
-      <c r="W11" s="13"/>
-      <c r="X11" s="13"/>
-      <c r="Y11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="15"/>
     </row>
     <row r="12" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -60819,32 +61153,32 @@
       <c r="A21" s="1">
         <v>43221</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="13"/>
-      <c r="U21" s="13"/>
-      <c r="V21" s="13"/>
-      <c r="W21" s="13"/>
-      <c r="X21" s="13"/>
-      <c r="Y21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="14"/>
+      <c r="X21" s="14"/>
+      <c r="Y21" s="15"/>
     </row>
     <row r="22" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
@@ -61134,32 +61468,32 @@
       <c r="A31" s="1">
         <v>43221</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="13"/>
-      <c r="R31" s="13"/>
-      <c r="S31" s="13"/>
-      <c r="T31" s="13"/>
-      <c r="U31" s="13"/>
-      <c r="V31" s="13"/>
-      <c r="W31" s="13"/>
-      <c r="X31" s="13"/>
-      <c r="Y31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="14"/>
+      <c r="V31" s="14"/>
+      <c r="W31" s="14"/>
+      <c r="X31" s="14"/>
+      <c r="Y31" s="15"/>
     </row>
     <row r="32" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
@@ -61450,32 +61784,32 @@
       <c r="A41" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
-      <c r="L41" s="13"/>
-      <c r="M41" s="13"/>
-      <c r="N41" s="13"/>
-      <c r="O41" s="13"/>
-      <c r="P41" s="13"/>
-      <c r="Q41" s="13"/>
-      <c r="R41" s="13"/>
-      <c r="S41" s="13"/>
-      <c r="T41" s="13"/>
-      <c r="U41" s="13"/>
-      <c r="V41" s="13"/>
-      <c r="W41" s="13"/>
-      <c r="X41" s="13"/>
-      <c r="Y41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="14"/>
+      <c r="O41" s="14"/>
+      <c r="P41" s="14"/>
+      <c r="Q41" s="14"/>
+      <c r="R41" s="14"/>
+      <c r="S41" s="14"/>
+      <c r="T41" s="14"/>
+      <c r="U41" s="14"/>
+      <c r="V41" s="14"/>
+      <c r="W41" s="14"/>
+      <c r="X41" s="14"/>
+      <c r="Y41" s="15"/>
     </row>
     <row r="42" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
@@ -61765,7 +62099,7 @@
     </row>
     <row r="52" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="53" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="15" t="s">
+      <c r="B53" s="12" t="s">
         <v>78</v>
       </c>
       <c r="E53" t="s">
@@ -62830,32 +63164,32 @@
       <c r="A1" s="1">
         <v>43191</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="15"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -63146,32 +63480,32 @@
       <c r="A11" s="1">
         <v>43160</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
-      <c r="W11" s="13"/>
-      <c r="X11" s="13"/>
-      <c r="Y11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="15"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
@@ -63823,32 +64157,32 @@
       <c r="A31" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="13"/>
-      <c r="R31" s="13"/>
-      <c r="S31" s="13"/>
-      <c r="T31" s="13"/>
-      <c r="U31" s="13"/>
-      <c r="V31" s="13"/>
-      <c r="W31" s="13"/>
-      <c r="X31" s="13"/>
-      <c r="Y31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="14"/>
+      <c r="V31" s="14"/>
+      <c r="W31" s="14"/>
+      <c r="X31" s="14"/>
+      <c r="Y31" s="15"/>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">

--- a/Time Table May 2018.xlsx
+++ b/Time Table May 2018.xlsx
@@ -19506,16 +19506,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>3265</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>436518</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>644434</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>79465</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>413658</xdr:rowOff>
+      <xdr:rowOff>11976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>56606</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>435430</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -19524,7 +19524,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15939951" y="10701747"/>
+          <a:off x="14688094" y="10723519"/>
           <a:ext cx="641169" cy="423454"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -22752,16 +22752,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>209007</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>424542</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>502921</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>65314</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>298270</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>330928</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>359228</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -22770,7 +22770,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17103635" y="11223171"/>
+          <a:off x="15481664" y="10689771"/>
           <a:ext cx="1449978" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -23509,6 +23509,74 @@
             <a:t> </a:t>
           </a:r>
           <a:endParaRPr lang="th-TH" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>470262</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>32660</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>413660</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="391" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11758748" y="10744203"/>
+          <a:ext cx="727166" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>relax</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -60904,7 +60972,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W25" sqref="W25"/>
+      <selection activeCell="AB28" sqref="AB28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Time Table May 2018.xlsx
+++ b/Time Table May 2018.xlsx
@@ -10,12 +10,12 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="144525" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="102">
   <si>
     <t>Time</t>
   </si>
@@ -293,9 +293,6 @@
     <t>Resume Sent?</t>
   </si>
   <si>
-    <t>Not yet</t>
-  </si>
-  <si>
     <t>Resume Made?</t>
   </si>
   <si>
@@ -309,6 +306,21 @@
   </si>
   <si>
     <t>Finish Date</t>
+  </si>
+  <si>
+    <t>Rejected</t>
+  </si>
+  <si>
+    <t>3rd place</t>
+  </si>
+  <si>
+    <t>Maxile</t>
+  </si>
+  <si>
+    <t>Enterprise App</t>
+  </si>
+  <si>
+    <t>Near Avenue</t>
   </si>
 </sst>
 </file>
@@ -10921,16 +10933,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>413656</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>436517</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>390796</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>33746</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>10886</xdr:rowOff>
+      <xdr:rowOff>413657</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10939,7 +10951,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13356771" y="11191603"/>
+          <a:off x="14358256" y="11148060"/>
           <a:ext cx="641169" cy="423454"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11149,16 +11161,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>490946</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>428897</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>468086</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>44632</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>401683</xdr:rowOff>
+      <xdr:rowOff>15241</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>21771</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>434341</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11167,7 +11179,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13107489" y="11586754"/>
+          <a:off x="13989232" y="11619412"/>
           <a:ext cx="641168" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11320,71 +11332,71 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>104503</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>433252</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>19595</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
+      <xdr:rowOff>410393</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="795" name="สี่เหลี่ยมผืนผ้า 794"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14669589" y="11591109"/>
+          <a:ext cx="679269" cy="423455"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>สวดมนต์</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>119743</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>443050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="795" name="สี่เหลี่ยมผืนผ้า 794"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14049103" y="11623766"/>
-          <a:ext cx="679269" cy="423455"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>สวดมนต์</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>631373</xdr:colOff>
+      <xdr:colOff>642259</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>54428</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>607424</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>618311</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>27214</xdr:rowOff>
     </xdr:to>
@@ -11395,7 +11407,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14575973" y="11212285"/>
+          <a:off x="15250888" y="11212285"/>
           <a:ext cx="640080" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11434,16 +11446,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>291738</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>607423</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>26126</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>306977</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>445226</xdr:rowOff>
+      <xdr:rowOff>47897</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>622662</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>20683</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11452,7 +11464,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13572309" y="12076612"/>
+          <a:off x="14552023" y="12098383"/>
           <a:ext cx="679268" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11549,15 +11561,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
+      <xdr:colOff>546463</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>655320</xdr:colOff>
+      <xdr:rowOff>18506</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>187234</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>426720</xdr:rowOff>
+      <xdr:rowOff>437606</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11566,8 +11578,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14935200" y="16360140"/>
-          <a:ext cx="967740" cy="419100"/>
+          <a:off x="15155092" y="12068992"/>
+          <a:ext cx="968828" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12004,14 +12016,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>126274</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>300445</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>32658</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>554083</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>64226</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>5444</xdr:rowOff>
     </xdr:to>
@@ -12022,7 +12034,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14070874" y="11190515"/>
+          <a:off x="14909074" y="11190515"/>
           <a:ext cx="427809" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12062,25 +12074,139 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>101236</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>426720</xdr:rowOff>
+      <xdr:colOff>166551</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>23948</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>498565</xdr:colOff>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>1087</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="808" name="สี่เหลี่ยมผืนผ้า 807"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12783094" y="11628119"/>
+          <a:ext cx="397329" cy="423454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>กินข้าวแ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>567146</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>403860</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="808" name="สี่เหลี่ยมผืนผ้า 807"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12717779" y="11584577"/>
-          <a:ext cx="397329" cy="423454"/>
+      <xdr:rowOff>41366</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>330925</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>18505</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="809" name="สี่เหลี่ยมผืนผ้า 808"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14511746" y="11645537"/>
+          <a:ext cx="427808" cy="423454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>อาบน้ำ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>636814</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>51162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>370114</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>23948</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="810" name="สี่เหลี่ยมผืนผ้า 809"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12589328" y="12101648"/>
+          <a:ext cx="397329" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12119,127 +12245,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>392975</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>411480</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>156754</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>388620</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="809" name="สี่เหลี่ยมผืนผ้า 808"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13673546" y="11569337"/>
-          <a:ext cx="427808" cy="423454"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>อาบน้ำ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>451757</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>7619</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>185057</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>426719</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="810" name="สี่เหลี่ยมผืนผ้า 809"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12404271" y="12058105"/>
-          <a:ext cx="397329" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>กินข้าวแ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>380999</xdr:colOff>
+      <xdr:colOff>598714</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>443050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>362494</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>415835</xdr:rowOff>
     </xdr:to>
@@ -12250,7 +12262,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12997542" y="12047221"/>
+          <a:off x="13879285" y="12047221"/>
           <a:ext cx="427809" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15057,7 +15069,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>272143</xdr:colOff>
+      <xdr:colOff>141515</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>30478</xdr:rowOff>
     </xdr:from>
@@ -15074,16 +15086,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8904514" y="11188335"/>
-          <a:ext cx="1785257" cy="423455"/>
+          <a:off x="8773886" y="11188335"/>
+          <a:ext cx="1915885" cy="423455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
+          <a:srgbClr val="FF0000"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -15117,7 +15127,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1000" baseline="0"/>
-            <a:t> 4000 </a:t>
+            <a:t> 10000 </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="th-TH" sz="1000" baseline="0"/>
@@ -15125,7 +15135,15 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1000" baseline="0"/>
-            <a:t> </a:t>
+            <a:t> XXXXXX </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
+            <a:t>พลาด ต้องมาก่อน </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>15:00 </a:t>
           </a:r>
           <a:endParaRPr lang="th-TH" sz="1000"/>
         </a:p>
@@ -19128,157 +19146,6 @@
             <a:rPr lang="th-TH" sz="1000"/>
             <a:t>เดินทาง</a:t>
           </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>411480</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="317" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6187440" y="11521440"/>
-          <a:ext cx="1447800" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-        <a:ln w="25560">
-          <a:solidFill>
-            <a:srgbClr val="3A5F8B"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>relax</a:t>
-          </a:r>
-          <a:endParaRPr/>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:endParaRPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>413658</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>21771</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>642259</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>440871</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="318" name="สี่เหลี่ยมผืนผ้า 317"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7053944" y="11625942"/>
-          <a:ext cx="2220686" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000"/>
-            <a:t>Pack </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>ของ และคอม ใส่กระเป๋า</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
-            <a:t> (ห้ามใช้กระเป๋าเดินทาง)</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000" baseline="0"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
-            <a:t>มีบอกที่ขีดเส้นใต้ใน </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000" baseline="0"/>
-            <a:t>to do list</a:t>
-          </a:r>
-          <a:endParaRPr lang="th-TH" sz="1000"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -21170,16 +21037,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>317862</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>3267</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>217715</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>422367</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>23947</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>3266</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>849086</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>422366</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -21188,8 +21055,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11606348" y="11161124"/>
-          <a:ext cx="1891938" cy="419100"/>
+          <a:off x="15960633" y="12053752"/>
+          <a:ext cx="2153196" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21227,7 +21094,15 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1000"/>
-            <a:t>Fic </a:t>
+            <a:t>Route</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ไว้เดินทาง </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>, Fic </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="th-TH" sz="1000"/>
@@ -21236,73 +21111,6 @@
           <a:r>
             <a:rPr lang="th-TH" sz="1000" baseline="0"/>
             <a:t> เพลง ลง โทรศัพท์ ไว้อ่านฟังบนเคครื่องบิน</a:t>
-          </a:r>
-          <a:endParaRPr lang="th-TH" sz="1000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>461553</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>631370</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>426720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="350" name="สี่เหลี่ยมผืนผ้า 349"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15070182" y="11165477"/>
-          <a:ext cx="2161902" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>เตรียมเสื้อผ้าที่เหมาะสมที่สุดสำหรับทริป</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
-            <a:t> เก็ยไว้สำหรับวันนั้น เผื่อเวลา</a:t>
           </a:r>
           <a:endParaRPr lang="th-TH" sz="1000"/>
         </a:p>
@@ -22685,15 +22493,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>100149</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>32658</xdr:rowOff>
+      <xdr:colOff>56606</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>21773</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>886098</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>413658</xdr:rowOff>
+      <xdr:colOff>842555</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>402773</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -22702,7 +22510,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16700863" y="12529458"/>
+          <a:off x="16657320" y="11625944"/>
           <a:ext cx="1449978" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -22752,16 +22560,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>209007</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>424542</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>330928</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>359228</xdr:rowOff>
+      <xdr:rowOff>10885</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>167641</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>391885</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -22770,7 +22578,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15481664" y="10689771"/>
+          <a:off x="15982406" y="10722428"/>
           <a:ext cx="1449978" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -22958,16 +22766,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>276498</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>18506</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>207918</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>437606</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>47899</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>62050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>10886</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>34835</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -22976,8 +22784,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10900955" y="12515306"/>
-          <a:ext cx="1259477" cy="419100"/>
+          <a:off x="13992499" y="11666221"/>
+          <a:ext cx="1291044" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -23015,7 +22823,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1000"/>
-            <a:t>  90</a:t>
+            <a:t>  160</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="th-TH" sz="1000"/>
@@ -23030,11 +22838,23 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1000" baseline="0"/>
-            <a:t>2151 </a:t>
+            <a:t>4000 </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="th-TH" sz="1000" baseline="0"/>
             <a:t>บาท</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
+            <a:t>เข้า </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>wallet</a:t>
           </a:r>
           <a:endParaRPr lang="th-TH" sz="1000"/>
         </a:p>
@@ -23291,16 +23111,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>470263</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>17417</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>339634</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>398418</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>315686</xdr:colOff>
+      <xdr:colOff>446314</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>375557</xdr:rowOff>
+      <xdr:rowOff>440871</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -23309,7 +23129,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6979920" y="12002589"/>
+          <a:off x="6446520" y="12067903"/>
           <a:ext cx="640080" cy="423454"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -23568,6 +23388,1321 @@
             </a:rPr>
             <a:t>relax</a:t>
           </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>642258</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>21772</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>348343</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>425332</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="392" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5290458" y="11179629"/>
+          <a:ext cx="1698171" cy="403560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="E46C0A"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>ประสานงาน </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Web App </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>กับปราง</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>เรื่อง </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Axios</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>201385</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>17419</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9316</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>420859</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="393" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4849585" y="11175276"/>
+          <a:ext cx="471960" cy="403440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="77933C"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>คอมใหญ่</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>617220</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>418012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>390798</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="394" name="สี่เหลี่ยมผืนผ้า 393"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13897791" y="11129555"/>
+          <a:ext cx="397329" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>กินข้าวแ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>330926</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>421276</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>283028</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>446313</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="395" name="สี่เหลี่ยมผืนผ้า 394"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14939555" y="10686505"/>
+          <a:ext cx="1280159" cy="471351"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>เตรียม </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Route</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ไว้เดินทาง ใน</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>iBook</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>108858</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>19591</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>566057</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>443046</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="396" name="สี่เหลี่ยมผืนผ้า 395"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8741229" y="11623762"/>
+          <a:ext cx="1785257" cy="423455"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>กดเงิน </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>TMB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t> 10000 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
+            <a:t>บาท</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
+            <a:t>เบิกเงิน </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>60700 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
+            <a:t>บาท พร้อมแม่</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>296092</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>21771</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>418013</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>402771</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="397" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6272349" y="11179628"/>
+          <a:ext cx="1449978" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Erect sub</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>67492</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>189413</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>391886</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="398" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16004178" y="11168743"/>
+          <a:ext cx="1449978" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Erect dom</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>21771</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>424543</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>391885</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>381789</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="399" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12638314" y="11136086"/>
+          <a:ext cx="1698171" cy="403560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="E46C0A"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>ประสานงาน </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Web App </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>กับปราง</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>เรื่อง </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Axios</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>470263</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>441961</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>446315</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>419101</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="400" name="สี่เหลี่ยมผืนผ้า 399"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5782492" y="11599818"/>
+          <a:ext cx="640080" cy="423454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เดินทาง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>97971</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>21773</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>468085</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>425333</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="401" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6738257" y="11625944"/>
+          <a:ext cx="1698171" cy="403560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="E46C0A"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>ประสานงาน </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Web App </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>กับปราง</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>เรื่อง </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Axios</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>189414</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>94708</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>751113</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>67493</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="402" name="สี่เหลี่ยมผืนผ้า 401"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18444757" y="11698879"/>
+          <a:ext cx="1552299" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ซื้อกระเป๋าตังค์สำรอง</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ใส่เงินก้อนใหญ่ใน</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>backpack</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>613956</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>421277</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>65314</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>435429</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="403" name="สี่เหลี่ยมผืนผ้า 402"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13230499" y="12025448"/>
+          <a:ext cx="1443444" cy="460467"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>แลกเงิน</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>  160</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>SGD </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>4000 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
+            <a:t>บาท</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>เข้า </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>wallet</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>143692</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>28303</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>119743</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>5442</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="404" name="สี่เหลี่ยมผืนผ้า 403"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13424263" y="11632474"/>
+          <a:ext cx="640080" cy="423454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เดินทาง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>67491</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>6531</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>43542</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>429985</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="405" name="สี่เหลี่ยมผืนผ้า 404"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12020005" y="12057017"/>
+          <a:ext cx="640080" cy="423454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เดินทาง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>511628</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>402773</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>217714</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>360018</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="406" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7151914" y="12006944"/>
+          <a:ext cx="1698171" cy="403560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="E46C0A"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>ประสานงาน </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Web App </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>กับปราง</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>เรื่อง </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Axios</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:endParaRPr/>
         </a:p>
         <a:p>
@@ -60972,7 +62107,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AB28" sqref="AB28"/>
+      <selection activeCell="Z30" sqref="Z30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -62576,16 +63711,16 @@
         <v>91</v>
       </c>
       <c r="O53" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q53" t="s">
+        <v>94</v>
+      </c>
+      <c r="S53" t="s">
         <v>95</v>
       </c>
-      <c r="S53" t="s">
+      <c r="U53" t="s">
         <v>96</v>
-      </c>
-      <c r="U53" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="54" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -62599,16 +63734,16 @@
         <v>82</v>
       </c>
       <c r="H54" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="J54" t="s">
         <v>88</v>
       </c>
       <c r="M54" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O54" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q54" t="s">
         <v>85</v>
@@ -62637,10 +63772,10 @@
         <v>89</v>
       </c>
       <c r="M55" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O55" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q55" t="s">
         <v>85</v>
@@ -62652,7 +63787,38 @@
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>98</v>
+      </c>
+      <c r="C56" t="s">
+        <v>99</v>
+      </c>
+      <c r="E56" t="s">
+        <v>100</v>
+      </c>
+      <c r="H56" t="s">
+        <v>85</v>
+      </c>
+      <c r="J56" t="s">
+        <v>101</v>
+      </c>
+      <c r="M56" t="s">
+        <v>93</v>
+      </c>
+      <c r="O56" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>85</v>
+      </c>
+      <c r="S56" t="s">
+        <v>85</v>
+      </c>
+      <c r="U56" t="s">
+        <v>85</v>
+      </c>
+    </row>
     <row r="57" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="58" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="59" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Time Table May 2018.xlsx
+++ b/Time Table May 2018.xlsx
@@ -5602,7 +5602,23 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> / Sleep</a:t>
+            <a:t> / Sleep  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0"/>
+            <a:t>ตตื่น </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>4:00 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0"/>
+            <a:t>ออก </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>5:30</a:t>
           </a:r>
           <a:endParaRPr lang="th-TH" sz="1100"/>
         </a:p>
@@ -6002,14 +6018,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>41365</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>26126</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>419100</xdr:rowOff>
     </xdr:to>
@@ -6020,8 +6036,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4008120" y="1325880"/>
-          <a:ext cx="647700" cy="419100"/>
+          <a:off x="3361508" y="14728371"/>
+          <a:ext cx="648789" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6396,16 +6412,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>1088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>37011</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>414745</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>13063</xdr:colOff>
+      <xdr:colOff>143691</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>391885</xdr:rowOff>
+      <xdr:rowOff>424542</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6414,7 +6430,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11325497" y="14250488"/>
+          <a:off x="10792097" y="14283145"/>
           <a:ext cx="640080" cy="423454"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7048,16 +7064,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>444135</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>421277</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>378822</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>443048</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>111033</xdr:colOff>
+      <xdr:colOff>176347</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>415834</xdr:rowOff>
+      <xdr:rowOff>394063</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7066,7 +7082,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11003279" y="14278791"/>
+          <a:off x="10404564" y="14257020"/>
           <a:ext cx="396240" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11503,16 +11519,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>54428</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>366849</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>69667</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>426720</xdr:rowOff>
+      <xdr:rowOff>339635</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11521,8 +11537,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12900660" y="16802100"/>
-          <a:ext cx="678180" cy="419100"/>
+          <a:off x="13999028" y="12417335"/>
+          <a:ext cx="679268" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14719,15 +14735,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>468087</xdr:colOff>
+      <xdr:colOff>217716</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>29392</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>10888</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>426720</xdr:rowOff>
+      <xdr:colOff>54429</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>2177</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14736,8 +14752,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5780316" y="14735991"/>
-          <a:ext cx="1534886" cy="419100"/>
+          <a:off x="5529945" y="14757763"/>
+          <a:ext cx="1828798" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14786,13 +14802,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
+      <xdr:colOff>119744</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
+      <xdr:colOff>22861</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>426720</xdr:rowOff>
     </xdr:to>
@@ -14803,8 +14819,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7437120" y="14592300"/>
-          <a:ext cx="3192780" cy="419100"/>
+          <a:off x="7424058" y="14735991"/>
+          <a:ext cx="3223260" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15818,8 +15834,8 @@
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>247380</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>620486</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>434040</xdr:rowOff>
     </xdr:to>
@@ -15830,8 +15846,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8001000" y="12405360"/>
-          <a:ext cx="2853420" cy="403560"/>
+          <a:off x="8014063" y="12527280"/>
+          <a:ext cx="1902823" cy="403560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16741,15 +16757,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>505097</xdr:colOff>
+      <xdr:colOff>494211</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>373379</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>341812</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>57694</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>352698</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>353785</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -16758,7 +16774,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7145383" y="13893437"/>
+          <a:off x="7134497" y="13762808"/>
           <a:ext cx="1839686" cy="426720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16813,16 +16829,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>519249</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>434339</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>434340</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>289560</xdr:colOff>
+      <xdr:colOff>137161</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>411480</xdr:rowOff>
+      <xdr:rowOff>411479</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -16831,8 +16847,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4648200" y="14577060"/>
-          <a:ext cx="944880" cy="419100"/>
+          <a:off x="3839392" y="14716396"/>
+          <a:ext cx="945969" cy="423454"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17419,15 +17435,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:colOff>185057</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>414745</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>116477</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>391886</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -17436,8 +17452,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8031480" y="15933420"/>
-          <a:ext cx="1920240" cy="419100"/>
+          <a:off x="8153400" y="16035745"/>
+          <a:ext cx="1923506" cy="423455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17484,13 +17500,13 @@
       <xdr:col>21</xdr:col>
       <xdr:colOff>53340</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>163284</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>426720</xdr:rowOff>
+      <xdr:rowOff>426719</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -17499,8 +17515,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13975080" y="15034260"/>
-          <a:ext cx="1104900" cy="419100"/>
+          <a:off x="13997940" y="15337970"/>
+          <a:ext cx="1105989" cy="263435"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20364,15 +20380,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>383177</xdr:colOff>
+      <xdr:colOff>448491</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>166552</xdr:rowOff>
+      <xdr:rowOff>3266</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>360317</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>139338</xdr:rowOff>
+      <xdr:colOff>425631</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>422366</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -20381,7 +20397,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9015548" y="14002295"/>
+          <a:off x="9080862" y="13839009"/>
           <a:ext cx="1969226" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -20952,7 +20968,15 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> / Sleep</a:t>
+            <a:t> / Sleep </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0"/>
+            <a:t>ตตั้งต่ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>19:00-20:00</a:t>
           </a:r>
           <a:endParaRPr lang="th-TH" sz="1100"/>
         </a:p>
@@ -20962,16 +20986,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>187235</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>339634</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>3266</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>164375</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>422366</xdr:rowOff>
+      <xdr:rowOff>384264</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>316774</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>357050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -20980,7 +21004,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13467806" y="12500066"/>
+          <a:off x="12292148" y="12881064"/>
           <a:ext cx="1969226" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -21018,16 +21042,8 @@
             <a:t>เตรียม </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1000"/>
-            <a:t>Fic </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>และ</a:t>
-          </a:r>
-          <a:r>
             <a:rPr lang="th-TH" sz="1000" baseline="0"/>
-            <a:t> เพลง ลง โทรศัพท์ ไว้อ่านฟังบนเคครื่องบิน</a:t>
+            <a:t>เพลง ลง โทรศัพท์ ไว้ฟังบนเคครื่องบิน</a:t>
           </a:r>
           <a:endParaRPr lang="th-TH" sz="1000"/>
         </a:p>
@@ -21037,16 +21053,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>23947</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>45718</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>395153</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>413657</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>3266</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>849086</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>422366</xdr:rowOff>
+      <xdr:rowOff>367938</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -21055,8 +21071,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15960633" y="12053752"/>
-          <a:ext cx="2153196" cy="419100"/>
+          <a:off x="11334204" y="11999324"/>
+          <a:ext cx="2360024" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21090,27 +21106,35 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>เตรียม </a:t>
+            <a:t>เตรียม แผนที่ </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1000"/>
-            <a:t>Route</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>ไว้เดินทาง </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000"/>
-            <a:t>, Fic </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>และ</a:t>
+            <a:t>MRT, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>แผนที่</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="th-TH" sz="1000" baseline="0"/>
-            <a:t> เพลง ลง โทรศัพท์ ไว้อ่านฟังบนเคครื่องบิน</a:t>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>Universal </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
+            <a:t>และ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>garden </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
+            <a:t>เต็มรูป ลง โทรศัพท์ </a:t>
           </a:r>
           <a:endParaRPr lang="th-TH" sz="1000"/>
         </a:p>
@@ -21183,16 +21207,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>644434</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>359229</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>438694</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>195943</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>68581</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>468085</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>41367</xdr:rowOff>
+      <xdr:rowOff>411480</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -21201,8 +21225,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7948748" y="14350638"/>
-          <a:ext cx="2479766" cy="419100"/>
+          <a:off x="10983686" y="14274437"/>
+          <a:ext cx="1828800" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -22766,104 +22790,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>47899</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>62050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>10886</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>34835</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="383" name="สี่เหลี่ยมผืนผ้า 382"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13992499" y="11666221"/>
-          <a:ext cx="1291044" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>แลกเงิน</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000"/>
-            <a:t>  160</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000"/>
-            <a:t>SGD </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000" baseline="0"/>
-            <a:t>4000 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
-            <a:t>บาท</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000" baseline="0"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
-            <a:t>เข้า </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000" baseline="0"/>
-            <a:t>wallet</a:t>
-          </a:r>
-          <a:endParaRPr lang="th-TH" sz="1000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>332014</xdr:colOff>
       <xdr:row>25</xdr:row>
@@ -23112,13 +23038,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>470263</xdr:colOff>
+      <xdr:colOff>165463</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>17417</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>446314</xdr:colOff>
+      <xdr:colOff>141514</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>440871</xdr:rowOff>
     </xdr:to>
@@ -23129,7 +23055,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6446520" y="12067903"/>
+          <a:off x="6141720" y="12067903"/>
           <a:ext cx="640080" cy="423454"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -24291,26 +24217,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>189414</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>94708</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>751113</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>67493</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="402" name="สี่เหลี่ยมผืนผ้า 401"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="18444757" y="11698879"/>
-          <a:ext cx="1552299" cy="419100"/>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>461556</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>29390</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>576943</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>43543</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="403" name="สี่เหลี่ยมผืนผ้า 402"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9757956" y="12526190"/>
+          <a:ext cx="1443444" cy="460467"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -24344,90 +24270,11 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>ซื้อกระเป๋าตังค์สำรอง</a:t>
+            <a:t>แลกเงิน</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1000"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>ใส่เงินก้อนใหญ่ใน</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000" baseline="0"/>
-            <a:t>backpack</a:t>
-          </a:r>
-          <a:endParaRPr lang="th-TH" sz="1000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>613956</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>421277</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>65314</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>435429</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="403" name="สี่เหลี่ยมผืนผ้า 402"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13230499" y="12025448"/>
-          <a:ext cx="1443444" cy="460467"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>แลกเงิน</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000"/>
-            <a:t>  160</a:t>
+            <a:t>  320</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="th-TH" sz="1000"/>
@@ -24442,7 +24289,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1000" baseline="0"/>
-            <a:t>4000 </a:t>
+            <a:t>8000 </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="th-TH" sz="1000" baseline="0"/>
@@ -24599,15 +24446,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>511628</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>402773</xdr:rowOff>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>10887</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>217714</xdr:colOff>
+      <xdr:colOff>10886</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>360018</xdr:rowOff>
+      <xdr:rowOff>414447</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -24616,7 +24463,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7151914" y="12006944"/>
+          <a:off x="6945086" y="12061373"/>
           <a:ext cx="1698171" cy="403560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -24712,6 +24559,1130 @@
             </a:lnSpc>
           </a:pPr>
           <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>581299</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>18504</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>337458</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="383" name="สี่เหลี่ยมผืนผ้า 382"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11205756" y="12515304"/>
+          <a:ext cx="1084216" cy="460467"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ตัดผม</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>402771</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>435430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>97971</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>392675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="402" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16339457" y="12039601"/>
+          <a:ext cx="2013857" cy="403560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="E46C0A"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>ทำ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>axios </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>เชื่อมให้เสร็จเลย ที่เหลือ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>back-end </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>ให้ปรางจัดการ</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>435428</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>21772</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>425332</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="407" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5747657" y="12518572"/>
+          <a:ext cx="2013857" cy="403560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="E46C0A"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>ทำ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>axios </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>เชื่อมให้เสร็จเลย ที่เหลือ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>back-end </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>ให้ปรางจัดการ</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>435429</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>380999</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>293914</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>338245</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="408" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12387943" y="12431485"/>
+          <a:ext cx="1850571" cy="403560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="E46C0A"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>ทำ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>axios </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>เชื่อมให้เสร็จเลย ที่เหลือ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>back-end </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>ให้ปรางจัดการ</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>598714</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>18505</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>437605</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="409" name="สี่เหลี่ยมผืนผ้า 408"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14543314" y="12515305"/>
+          <a:ext cx="2286000" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100"/>
+            <a:t>นอน</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> / Sleep</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>195943</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>421277</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>394063</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="410" name="สี่เหลี่ยมผืนผ้า 409"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7500257" y="14257020"/>
+          <a:ext cx="2841171" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100"/>
+            <a:t>เยิ่ยมสนามบิน ซ้อมไป</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0"/>
+            <a:t> ไปมหาลัยหลบร้อน</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>573678</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9796</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>191589</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>433250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="412" name="สี่เหลี่ยมผืนผ้า 411"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4557849" y="14738167"/>
+          <a:ext cx="945969" cy="423454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>นั่งมอไซค์</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
+            <a:t> หรือ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>taxi </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
+            <a:t>ไป</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>312418</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>75110</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>468085</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>52250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="413" name="สี่เหลี่ยมผืนผ้า 412"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4960618" y="14357167"/>
+          <a:ext cx="1483724" cy="423454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>Check-in Online </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ผ่าน </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>App print Boarding Pass</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>214449</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>151312</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>496389</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>128451</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="414" name="สี่เหลี่ยมผืนผ้า 413"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14159049" y="14879683"/>
+          <a:ext cx="945969" cy="423454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ส่งรูปไปให้พ่อดูในไลน์</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>247107</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>42455</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>529047</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>19595</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="415" name="สี่เหลี่ยมผืนผ้า 414"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14191707" y="15663455"/>
+          <a:ext cx="945969" cy="423454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ส่งรูปไปให้พ่อดูในไลน์</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>486593</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>31569</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>32658</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>8709</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="416" name="สี่เหลี่ยมผืนผ้า 415"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14431193" y="15206255"/>
+          <a:ext cx="874122" cy="423454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ส่งรูปไปให้พ่อดูในไลน์</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>655320</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>444137</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>566058</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>401383</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="417" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5967549" y="14279880"/>
+          <a:ext cx="1902823" cy="403560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="E46C0A"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>เบิกเงินให้พ่อ </a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>642256</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>438695</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>10886</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>411481</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="411" name="สี่เหลี่ยมผืนผ้า 410"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7282542" y="14274438"/>
+          <a:ext cx="2024744" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="002060"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ซื้อแชมพู ยาสีฟันเล็กๆ ใช้เดินทาง เก็บแปรงด้วย</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
+            <a:t> ใส่ถุงซิปรวมกัน</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>448492</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>429985</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>570411</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>369025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="418" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9080863" y="14265728"/>
+          <a:ext cx="1449977" cy="385354"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>relax</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>195943</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>217714</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>87085</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="454" name="สี่เหลี่ยมผืนผ้า 453"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8164286" y="16372114"/>
+          <a:ext cx="2013857" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="800" baseline="0"/>
+            <a:t>ซื้อของฝาก หมูแผ่น ให้แม่</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="800"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -62106,8 +63077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z30" sqref="Z30"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q39" sqref="Q39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Time Table May 2018.xlsx
+++ b/Time Table May 2018.xlsx
@@ -18386,16 +18386,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>545373</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:rowOff>68581</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
+      <xdr:colOff>3265</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>7621</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -18404,8 +18404,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5989320" y="16421100"/>
-          <a:ext cx="1447800" cy="381000"/>
+          <a:off x="5857602" y="16582210"/>
+          <a:ext cx="1449977" cy="385354"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -25683,6 +25683,82 @@
             <a:t>ซื้อของฝาก หมูแผ่น ให้แม่</a:t>
           </a:r>
           <a:endParaRPr lang="th-TH" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>127364</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>412569</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>32657</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>389709</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="450" name="สี่เหลี่ยมผืนผ้า 449"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10751821" y="16926198"/>
+          <a:ext cx="1233350" cy="423454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>แลกเงิน </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>SGD </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เป็น </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>THB </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เข้ากสิกร</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -63078,7 +63154,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q39" sqref="Q39"/>
+      <selection activeCell="V38" sqref="V38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Time Table May 2018.xlsx
+++ b/Time Table May 2018.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="103">
   <si>
     <t>Time</t>
   </si>
@@ -322,6 +322,9 @@
   <si>
     <t>Near Avenue</t>
   </si>
+  <si>
+    <t>สิ่งที่ต้องรู้ช่วง สหกิจ : 1.จ่ายค่าเทอมตอนไหน 2.เริ่ม-จบ ตอนไหน 3.ลางานได้กี่วัน 4.เรียนรู้ให้เกิดความมั่นคงทางความรู้ให้มากที่สุดยังไงต้องรู้ (เรียนรู้ได้ถ่องแท้ เกรดมาเอง แต่สำคัญกว่าเกรดคืออย่างที่ว่าแหละ)</t>
+  </si>
 </sst>
 </file>
 
@@ -8594,55 +8597,1366 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>197031</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>435429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>212271</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>408215</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="431" name="สี่เหลี่ยมผืนผ้า 430"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15469688" y="18734315"/>
+          <a:ext cx="679269" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>สวดมนต์</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>403859</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>129539</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>380999</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="432" name="สี่เหลี่ยมผืนผ้า 431"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14096999" y="20041688"/>
+          <a:ext cx="641169" cy="423454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เดินทาง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>530135</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>26126</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>506186</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>445226</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="434" name="สี่เหลี่ยมผืนผ้า 433"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14474735" y="19217640"/>
+          <a:ext cx="640080" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เดินทาง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>530135</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>506186</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>429986</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="435" name="สี่เหลี่ยมผืนผ้า 434"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14474735" y="19648715"/>
+          <a:ext cx="640080" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เดินทาง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>186146</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>439782</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>163285</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>412568</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="436" name="สี่เหลี่ยมผืนผ้า 435"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14130746" y="20523925"/>
+          <a:ext cx="641168" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เดินทาง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>178526</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>18506</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>193766</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>437606</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="437" name="สี่เหลี่ยมผืนผ้า 436"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15451183" y="19210020"/>
+          <a:ext cx="679269" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>สวดมนต์</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>193766</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>26126</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>209006</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>445226</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="438" name="สี่เหลี่ยมผืนผ้า 437"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15466423" y="19663955"/>
+          <a:ext cx="679269" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>สวดมนต์</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>529045</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>8708</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>544286</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>432162</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="439" name="สี่เหลี่ยมผืนผ้า 438"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15137674" y="20539165"/>
+          <a:ext cx="679269" cy="423454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>สวดมนต์</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>435428</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>380999</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>353785</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="440" name="สี่เหลี่ยมผืนผ้า 439"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15044057" y="20018828"/>
+          <a:ext cx="640080" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>สวดมนต์</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>302623</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>26126</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>317862</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>445226</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="441" name="สี่เหลี่ยมผืนผ้า 440"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14247223" y="21002897"/>
+          <a:ext cx="679268" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>สวดมนต์</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>272143</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>18506</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>287382</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>437606</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="442" name="สี่เหลี่ยมผืนผ้า 441"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14216743" y="21441592"/>
+          <a:ext cx="679268" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>สวดมนต์</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>633550</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>51163</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>274321</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>23948</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="443" name="สี่เหลี่ยมผืนผ้า 442"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15906207" y="21027934"/>
+          <a:ext cx="968828" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ตรวจปฎิทิน</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>609601</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>53339</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>219892</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="444" name="สี่เหลี่ยมผืนผ้า 443"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15882258" y="21476425"/>
+          <a:ext cx="938348" cy="423455"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ตรวจปฎิทิน</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>585653</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>443048</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>317864</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>415834</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="445" name="สี่เหลี่ยมผืนผ้า 444"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14530253" y="18741934"/>
+          <a:ext cx="396240" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>กินข้าวแ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>267789</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>445226</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>31569</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>422366</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="446" name="สี่เหลี่ยมผืนผ้า 445"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14876418" y="18744112"/>
+          <a:ext cx="427808" cy="423454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>อาบน้ำ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>225335</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>4355</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>622664</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>423455</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="447" name="สี่เหลี่ยมผืนผ้า 446"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12177849" y="19195869"/>
+          <a:ext cx="397329" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>กินข้าวแ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>506186</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>269966</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>429986</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="448" name="สี่เหลี่ยมผืนผ้า 447"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15114815" y="19202400"/>
+          <a:ext cx="427808" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>อาบน้ำ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>293915</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>443050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>26126</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>415835</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="449" name="สี่เหลี่ยมผืนผ้า 448"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12246429" y="19634564"/>
+          <a:ext cx="396240" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>กินข้าวแ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>422366</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>445226</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>186146</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>422366</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="451" name="สี่เหลี่ยมผืนผ้า 450"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15030995" y="19636740"/>
+          <a:ext cx="427808" cy="423455"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>อาบน้ำ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>60959</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>380999</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>488768</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>353785</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="452" name="สี่เหลี่ยมผืนผ้า 451"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14669588" y="20018828"/>
+          <a:ext cx="427809" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>อาบน้ำ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>199209</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>426719</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>596538</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>403859</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="453" name="สี่เหลี่ยมผืนผ้า 452"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12151723" y="20510862"/>
+          <a:ext cx="397329" cy="423454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>กินข้าวแ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>131717</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>389708</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>559525</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>366848</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="485" name="สี่เหลี่ยมผืนผ้า 484"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14740346" y="20473851"/>
+          <a:ext cx="427808" cy="423454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>อาบน้ำ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>234043</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>18506</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>631372</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>437606</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="537" name="สี่เหลี่ยมผืนผ้า 536"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13514614" y="20995277"/>
+          <a:ext cx="397329" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>กินข้าวแ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>576943</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>18506</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>419100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="431" name="สี่เหลี่ยมผืนผ้า 430"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13586460" y="14142720"/>
-          <a:ext cx="678180" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>สวดมนต์</a:t>
+      <xdr:colOff>340723</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>437606</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="570" name="สี่เหลี่ยมผืนผ้า 569"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13857514" y="20995277"/>
+          <a:ext cx="427809" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>อาบน้ำ</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -8652,1440 +9966,72 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:colOff>234043</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>631372</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>429986</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="622" name="สี่เหลี่ยมผืนผ้า 621"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13514614" y="21433972"/>
+          <a:ext cx="397329" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>กินข้าวแ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>576943</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>358140</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="432" name="สี่เหลี่ยมผืนผ้า 431"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13639800" y="15491460"/>
-          <a:ext cx="640080" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>เดินทาง</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>655320</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="433" name="สี่เหลี่ยมผืนผ้า 432"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12611100" y="14165580"/>
-          <a:ext cx="640080" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>เดินทาง</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>434340</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="434" name="สี่เหลี่ยมผืนผ้า 433"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12603480" y="14599920"/>
-          <a:ext cx="640080" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>เดินทาง</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>419100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="435" name="สี่เหลี่ยมผืนผ้า 434"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12603480" y="15026640"/>
-          <a:ext cx="640080" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>เดินทาง</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>434340</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="436" name="สี่เหลี่ยมผืนผ้า 435"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12618720" y="15925800"/>
-          <a:ext cx="640080" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>เดินทาง</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>426720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="437" name="สี่เหลี่ยมผืนผ้า 436"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13578840" y="14592300"/>
-          <a:ext cx="678180" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>สวดมนต์</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>434340</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="438" name="สี่เหลี่ยมผืนผ้า 437"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13594080" y="15041880"/>
-          <a:ext cx="678180" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>สวดมนต์</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>365760</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="439" name="สี่เหลี่ยมผืนผ้า 438"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13624560" y="15941040"/>
-          <a:ext cx="678180" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>สวดมนต์</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>640080</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>419100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="440" name="สี่เหลี่ยมผืนผ้า 439"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14584680" y="15468600"/>
-          <a:ext cx="640080" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>สวดมนต์</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>434340</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="441" name="สี่เหลี่ยมผืนผ้า 440"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12931140" y="16367760"/>
-          <a:ext cx="678180" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>สวดมนต์</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:colOff>340723</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>426720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="442" name="สี่เหลี่ยมผืนผ้า 441"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12900660" y="16802100"/>
-          <a:ext cx="678180" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>สวดมนต์</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>655320</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>426720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="443" name="สี่เหลี่ยมผืนผ้า 442"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14935200" y="16360140"/>
-          <a:ext cx="967740" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>ตรวจปฎิทิน</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>434340</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>655320</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>411480</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="444" name="สี่เหลี่ยมผืนผ้า 443"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14965680" y="16786860"/>
-          <a:ext cx="937260" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>ตรวจปฎิทิน</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>655320</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>426720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="445" name="สี่เหลี่ยมผืนผ้า 444"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12192000" y="14150340"/>
-          <a:ext cx="396240" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>กินข้าวแ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>434340</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>358140</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>411480</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="446" name="สี่เหลี่ยมผืนผ้า 445"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13190220" y="14135100"/>
-          <a:ext cx="426720" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>อาบน้ำ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>312420</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>434340</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="447" name="สี่เหลี่ยมผืนผ้า 446"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12245340" y="14599920"/>
-          <a:ext cx="396240" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>กินข้าวแ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>411480</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>419100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="448" name="สี่เหลี่ยมผืนผ้า 447"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13243560" y="14584680"/>
-          <a:ext cx="426720" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>อาบน้ำ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>624840</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>426720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="449" name="สี่เหลี่ยมผืนผ้า 448"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12161520" y="15034260"/>
-          <a:ext cx="396240" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>กินข้าวแ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>563880</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>434340</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>411480</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="451" name="สี่เหลี่ยมผืนผ้า 450"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13159740" y="15019020"/>
-          <a:ext cx="426720" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>อาบน้ำ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>289560</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>419100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="452" name="สี่เหลี่ยมผืนผ้า 451"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14211300" y="15468600"/>
-          <a:ext cx="426720" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>อาบน้ำ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>426720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>403860</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="453" name="สี่เหลี่ยมผืนผ้า 452"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12230100" y="15895320"/>
-          <a:ext cx="396240" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>กินข้าวแ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>632460</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>411480</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>396240</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>388620</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="485" name="สี่เหลี่ยมผืนผ้า 484"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13228320" y="15880080"/>
-          <a:ext cx="426720" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>อาบน้ำ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>426720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="537" name="สี่เหลี่ยมผืนผ้า 536"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12199620" y="16360140"/>
-          <a:ext cx="396240" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>กินข้าวแ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>373380</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>426720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="570" name="สี่เหลี่ยมผืนผ้า 569"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12542520" y="16360140"/>
-          <a:ext cx="426720" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>อาบน้ำ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>419100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="622" name="สี่เหลี่ยมผืนผ้า 621"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12199620" y="16794480"/>
-          <a:ext cx="396240" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>กินข้าวแ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>373380</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>419100</xdr:rowOff>
+      <xdr:rowOff>429986</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10094,8 +10040,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12542520" y="16794480"/>
-          <a:ext cx="426720" cy="419100"/>
+          <a:off x="13857514" y="21433972"/>
+          <a:ext cx="427809" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18522,16 +18468,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>642258</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>29392</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>388620</xdr:rowOff>
+      <xdr:colOff>100149</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>410392</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -18540,8 +18486,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5455920" y="18569940"/>
-          <a:ext cx="1447800" cy="381000"/>
+          <a:off x="5290458" y="19220906"/>
+          <a:ext cx="1449977" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18572,7 +18518,7 @@
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>relax</a:t>
+            <a:t>relax Play NinDS</a:t>
           </a:r>
           <a:endParaRPr/>
         </a:p>
@@ -19446,16 +19392,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>411480</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>434340</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>388620</xdr:colOff>
+      <xdr:colOff>128451</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>411480</xdr:rowOff>
+      <xdr:rowOff>31569</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>105592</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>8709</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -19464,8 +19410,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15659100" y="20322540"/>
-          <a:ext cx="640080" cy="419100"/>
+          <a:off x="16065137" y="20562026"/>
+          <a:ext cx="641169" cy="423454"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -25758,6 +25704,2359 @@
           <a:r>
             <a:rPr lang="th-TH" sz="1000"/>
             <a:t>เข้ากสิกร</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>45718</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>54430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>517678</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>11555</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="455" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4693918" y="19245944"/>
+          <a:ext cx="471960" cy="403440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="77933C"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>คอมใหญ่</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>225336</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>18506</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>10886</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>422066</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="456" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7529650" y="18763706"/>
+          <a:ext cx="1777636" cy="403560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="E46C0A"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>คุยกับ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> อ.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>jittat </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>เรื่องสหกิจ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>+ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ค่าเทอม</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>10885</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>228601</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>438695</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="457" name="สี่เหลี่ยมผืนผ้า 456"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10635342" y="18760440"/>
+          <a:ext cx="1545773" cy="423455"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ไปขอบตุณกองกิจด้วย</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>คุยเรื่อง</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
+            <a:t>จ่ายค่าเทอม</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>116478</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>40277</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>566057</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>443837</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="458" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7420792" y="19231791"/>
+          <a:ext cx="1777636" cy="403560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="E46C0A"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>คุยกับ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> อ.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>jittat </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>เรื่องสหกิจ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> + </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>ค่าเทอม</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>65314</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>40277</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>655320</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>421277</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="459" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5377543" y="18785477"/>
+          <a:ext cx="1254034" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>relax</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>47898</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>11974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>23950</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>435428</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="460" name="สี่เหลี่ยมผืนผ้า 459"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6688184" y="19203488"/>
+          <a:ext cx="640080" cy="423454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เดินทาง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>29393</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>31570</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>435429</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>8710</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="461" name="สี่เหลี่ยมผืนผ้า 460"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9325793" y="18776770"/>
+          <a:ext cx="1070065" cy="423454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ใส่ข้อมูลความรู้</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>80554</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>418012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>402772</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>395153</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="462" name="สี่เหลี่ยมผืนผ้า 461"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12697097" y="18716898"/>
+          <a:ext cx="1650275" cy="423455"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>หาข้อมูลไปโอซาก้า</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
+            <a:t> ญี่ปุ่น ซักอย่างนึง</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>649878</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>42456</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>19595</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="463" name="สี่เหลี่ยมผืนผ้า 462"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9282249" y="19233970"/>
+          <a:ext cx="1211579" cy="423454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ใส่ข้อมูลความรู้</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>15239</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>37012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>337457</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>14152</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="464" name="สี่เหลี่ยมผืนผ้า 463"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12631782" y="19228526"/>
+          <a:ext cx="1650275" cy="423455"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>หาข้อมูลไปโอซาก้า</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
+            <a:t> ญี่ปุ่น ซักอย่างนึง</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>603067</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>47898</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>261256</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>25039</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="465" name="สี่เหลี่ยมผืนผ้า 464"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12555581" y="19685727"/>
+          <a:ext cx="1650275" cy="423455"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>หาข้อมูลไปโอซาก้า</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
+            <a:t> ญี่ปุ่น ซักอย่างนึง</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>116476</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>29391</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>566055</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>432951</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="466" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7420790" y="19667220"/>
+          <a:ext cx="1777636" cy="403560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="E46C0A"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>คุยกับ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> อ.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>jittat </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>เรื่องสหกิจ</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>570413</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>11973</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>546464</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>435427</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="467" name="สี่เหลี่ยมผืนผ้า 466"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5218613" y="19649802"/>
+          <a:ext cx="640080" cy="423454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เดินทาง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>134983</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>44630</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>111035</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>21770</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="468" name="สี่เหลี่ยมผืนผ้า 467"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6775269" y="20128773"/>
+          <a:ext cx="640080" cy="423454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เดินทาง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>252547</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>60478</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>33326</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="469" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4900747" y="20160343"/>
+          <a:ext cx="471960" cy="403440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="77933C"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>คอมใหญ่</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>508364</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>42456</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>250371</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>19596</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="471" name="สี่เหลี่ยมผืนผ้า 470"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9140735" y="19680285"/>
+          <a:ext cx="1070065" cy="423454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ใส่ข้อมูลความรู้</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>598713</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>29392</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>56605</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>410392</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="472" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10559142" y="19667221"/>
+          <a:ext cx="1449977" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>relax</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>631371</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>29394</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>410394</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="473" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5279571" y="20113537"/>
+          <a:ext cx="1513115" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>relax </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Play NinDS</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>468085</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>566057</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>411180</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="474" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7772399" y="20091763"/>
+          <a:ext cx="1426029" cy="403560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="E46C0A"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>คุยกับ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> อ.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>jittat </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>เรื่องสหกิจ</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>7621</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>434342</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>326571</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>411482</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="475" name="สี่เหลี่ยมผืนผ้า 474"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9304021" y="20072171"/>
+          <a:ext cx="982979" cy="423454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ใส่ข้อมูลความรู้</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>581296</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>396241</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>239485</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>373382</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="476" name="สี่เหลี่ยมผืนผ้า 475"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12533810" y="20034070"/>
+          <a:ext cx="1650275" cy="423455"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>หาข้อมูลไปโอซาก้า</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
+            <a:t> ญี่ปุ่น ซักอย่างนึง</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>10886</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>40278</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>132806</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>421278</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="477" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10635343" y="20124421"/>
+          <a:ext cx="1449977" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>relax</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>250372</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>410392</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>646612</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>383178</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="478" name="สี่เหลี่ยมผืนผ้า 477"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12202886" y="20048221"/>
+          <a:ext cx="396240" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>กินข้าวแ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>4352</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>439784</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>326570</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>416925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="479" name="สี่เหลี่ยมผืนผ้า 478"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12620895" y="20523927"/>
+          <a:ext cx="1650275" cy="423455"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>หาข้อมูลไปโอซาก้า</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
+            <a:t> ญี่ปุ่น ซักอย่างนึง</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>598714</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>40278</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>56606</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>421278</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="480" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10559143" y="20570735"/>
+          <a:ext cx="1449977" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>relax</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>141515</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>7619</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>263435</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>388619</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="481" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10765972" y="19199133"/>
+          <a:ext cx="1449977" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>relax</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>69669</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>44631</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>45721</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>21771</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="482" name="สี่เหลี่ยมผืนผ้า 481"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6709955" y="20575088"/>
+          <a:ext cx="640080" cy="423454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เดินทาง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>544286</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>18506</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>32656</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>422066</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="483" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7848600" y="20548963"/>
+          <a:ext cx="1480456" cy="403560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="E46C0A"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>คุยกับ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> อ.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>jittat </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>เรื่องสหกิจ</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>105593</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>412571</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>424543</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>389711</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="484" name="สี่เหลี่ยมผืนผ้า 483"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9401993" y="20496714"/>
+          <a:ext cx="982979" cy="423454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ใส่ข้อมูลความรู้</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>576943</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>40278</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>421278</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="486" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5225143" y="20570735"/>
+          <a:ext cx="1415143" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>relax</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>638992</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>369027</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>239486</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="433" name="สี่เหลี่ยมผืนผ้า 432"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5951221" y="19560541"/>
+          <a:ext cx="1592579" cy="599801"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ขอข้อมูลเรื่องกู้ยืมกสิกร เพื่อการศึกษา</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t> 1. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ยืมได้ยังไง</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>2. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
+            <a:t>ยืมได้ตอนไหน</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>102327</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>22859</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>78379</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>438693</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="470" name="สี่เหลี่ยมผืนผ้า 469"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6742613" y="18768059"/>
+          <a:ext cx="640080" cy="415834"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เดินทาง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>268878</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>439783</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>2178</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>412569</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="487" name="สี่เหลี่ยมผืนผ้า 486"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12221392" y="18738669"/>
+          <a:ext cx="397329" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>กินข้าวแ</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -63153,8 +65452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V38" sqref="V38"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M48" sqref="M48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -64738,6 +67037,9 @@
     <row r="51" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="6" t="s">
         <v>20</v>
+      </c>
+      <c r="I51" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="52" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Time Table May 2018.xlsx
+++ b/Time Table May 2018.xlsx
@@ -8597,16 +8597,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>284116</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>21772</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>197031</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>435429</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>212271</xdr:colOff>
+      <xdr:colOff>299357</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>408215</xdr:rowOff>
+      <xdr:rowOff>440872</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8615,7 +8615,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15469688" y="18734315"/>
+          <a:off x="14892745" y="18766972"/>
           <a:ext cx="679269" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8655,15 +8655,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>152399</xdr:colOff>
+      <xdr:colOff>239485</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>403859</xdr:rowOff>
+      <xdr:rowOff>382088</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>129539</xdr:colOff>
+      <xdr:colOff>216625</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>380999</xdr:rowOff>
+      <xdr:rowOff>359228</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8672,7 +8672,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14096999" y="20041688"/>
+          <a:off x="14184085" y="20019917"/>
           <a:ext cx="641169" cy="423454"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8826,13 +8826,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>186146</xdr:colOff>
+      <xdr:colOff>229688</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>439782</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>163285</xdr:colOff>
+      <xdr:colOff>206827</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>412568</xdr:rowOff>
     </xdr:to>
@@ -8843,7 +8843,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14130746" y="20523925"/>
+          <a:off x="14174288" y="20523925"/>
           <a:ext cx="641168" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8997,70 +8997,70 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>529045</xdr:colOff>
+      <xdr:colOff>561702</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>433251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>576943</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>8708</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
+      <xdr:rowOff>410391</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="439" name="สี่เหลี่ยมผืนผ้า 438"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15170331" y="20517394"/>
+          <a:ext cx="679269" cy="423454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>สวดมนต์</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>544286</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>432162</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="439" name="สี่เหลี่ยมผืนผ้า 438"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15137674" y="20539165"/>
-          <a:ext cx="679269" cy="423454"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>สวดมนต์</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>435428</xdr:colOff>
+      <xdr:colOff>76199</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>380999</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>411480</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>52250</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>353785</xdr:rowOff>
     </xdr:to>
@@ -9071,7 +9071,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15044057" y="20018828"/>
+          <a:off x="15348856" y="20018828"/>
           <a:ext cx="640080" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9339,72 +9339,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>585653</xdr:colOff>
+      <xdr:colOff>387532</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>443048</xdr:rowOff>
+      <xdr:rowOff>423455</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>317864</xdr:colOff>
+      <xdr:colOff>151311</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>415834</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="445" name="สี่เหลี่ยมผืนผ้า 444"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14530253" y="18741934"/>
-          <a:ext cx="396240" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>กินข้าวแ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>267789</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>445226</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>31569</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>422366</xdr:rowOff>
+      <xdr:rowOff>400595</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9413,7 +9356,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14876418" y="18744112"/>
+          <a:off x="14332132" y="18722341"/>
           <a:ext cx="427808" cy="423454"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9681,13 +9624,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>60959</xdr:colOff>
+      <xdr:colOff>169816</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>380999</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>488768</xdr:colOff>
+      <xdr:colOff>597625</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>353785</xdr:rowOff>
     </xdr:to>
@@ -9698,7 +9641,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14669588" y="20018828"/>
+          <a:off x="14778445" y="20018828"/>
           <a:ext cx="427809" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9795,13 +9738,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>131717</xdr:colOff>
+      <xdr:colOff>316774</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>389708</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>559525</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>80554</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>366848</xdr:rowOff>
     </xdr:to>
@@ -9812,7 +9755,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14740346" y="20473851"/>
+          <a:off x="14925403" y="20473851"/>
           <a:ext cx="427808" cy="423454"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -25865,7 +25808,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>+ </a:t>
+            <a:t> FB + </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="th-TH" sz="1100" baseline="0">
@@ -25904,16 +25847,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>10885</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>511627</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:rowOff>428897</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>228601</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>438695</xdr:rowOff>
+      <xdr:colOff>65315</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>406038</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -25922,7 +25865,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10635342" y="18760440"/>
+          <a:off x="10472056" y="19174097"/>
           <a:ext cx="1545773" cy="423455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -26142,7 +26085,7 @@
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>relax</a:t>
+            <a:t>relax rest my body and my leg</a:t>
           </a:r>
           <a:endParaRPr/>
         </a:p>
@@ -26277,16 +26220,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>80554</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>439782</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>418012</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>402772</xdr:colOff>
+      <xdr:rowOff>407126</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>97972</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>395153</xdr:rowOff>
+      <xdr:rowOff>384267</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -26295,7 +26238,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12697097" y="18716898"/>
+          <a:off x="10400211" y="18706012"/>
           <a:ext cx="1650275" cy="423455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -26404,16 +26347,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>15239</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>548639</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>37012</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>337457</xdr:colOff>
+      <xdr:rowOff>26127</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>14152</xdr:rowOff>
+      <xdr:rowOff>3267</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -26422,8 +26365,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12631782" y="19228526"/>
-          <a:ext cx="1650275" cy="423455"/>
+          <a:off x="12501153" y="19217641"/>
+          <a:ext cx="931818" cy="423455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -26472,13 +26415,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>603067</xdr:colOff>
+      <xdr:colOff>603068</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>47898</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>261256</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>500743</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>25039</xdr:rowOff>
     </xdr:to>
@@ -26489,8 +26432,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12555581" y="19685727"/>
-          <a:ext cx="1650275" cy="423455"/>
+          <a:off x="12555582" y="19685727"/>
+          <a:ext cx="1225732" cy="423455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -27196,13 +27139,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>581296</xdr:colOff>
+      <xdr:colOff>581295</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>396241</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>239485</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>373382</xdr:rowOff>
     </xdr:to>
@@ -27213,8 +27156,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12533810" y="20034070"/>
-          <a:ext cx="1650275" cy="423455"/>
+          <a:off x="12533809" y="20034070"/>
+          <a:ext cx="1280161" cy="423455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -27393,8 +27336,8 @@
       <xdr:rowOff>439784</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>326570</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>566057</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>416925</xdr:rowOff>
     </xdr:to>
@@ -27406,7 +27349,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12620895" y="20523927"/>
-          <a:ext cx="1650275" cy="423455"/>
+          <a:ext cx="1225733" cy="423455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -27522,16 +27465,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>141515</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>87088</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>7619</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>263435</xdr:colOff>
+      <xdr:rowOff>18506</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>21772</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>388619</xdr:rowOff>
+      <xdr:rowOff>399506</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -27540,8 +27483,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10765972" y="19199133"/>
-          <a:ext cx="1449977" cy="381000"/>
+          <a:off x="13367659" y="19210020"/>
+          <a:ext cx="1262742" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -27951,63 +27894,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>102327</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>22859</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>78379</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>438693</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="470" name="สี่เหลี่ยมผืนผ้า 469"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6742613" y="18768059"/>
-          <a:ext cx="640080" cy="415834"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>เดินทาง</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>268878</xdr:colOff>
       <xdr:row>41</xdr:row>
@@ -28058,6 +27944,74 @@
             <a:rPr lang="th-TH" sz="1000"/>
             <a:t>กินข้าวแ</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>228602</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>432162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>163287</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>366848</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="488" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12845145" y="18731048"/>
+          <a:ext cx="1262742" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>relax</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -65453,7 +65407,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M48" sqref="M48"/>
+      <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Time Table May 2018.xlsx
+++ b/Time Table May 2018.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="103">
   <si>
     <t>Time</t>
   </si>
@@ -330,8 +330,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="187" formatCode="mmm\ yyyy"/>
+    <numFmt numFmtId="188" formatCode="B1d\-mmm"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -457,7 +458,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -479,6 +480,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8597,14 +8599,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>284116</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>33746</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>21772</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>299357</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>48987</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>440872</xdr:rowOff>
     </xdr:to>
@@ -8615,7 +8617,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14892745" y="18766972"/>
+          <a:off x="15970432" y="18766972"/>
           <a:ext cx="679269" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8654,16 +8656,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>653142</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>360316</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>239485</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>382088</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>216625</xdr:colOff>
+      <xdr:colOff>630282</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>359228</xdr:rowOff>
+      <xdr:rowOff>337456</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8672,7 +8674,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14184085" y="20019917"/>
+          <a:off x="13933713" y="19998145"/>
           <a:ext cx="641169" cy="423454"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9053,16 +9055,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>402770</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>402770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>380999</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>52250</xdr:colOff>
+      <xdr:colOff>378822</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>353785</xdr:rowOff>
+      <xdr:rowOff>375556</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9071,7 +9073,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15348856" y="20018828"/>
+          <a:off x="15011399" y="20040599"/>
           <a:ext cx="640080" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9111,15 +9113,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>302623</xdr:colOff>
+      <xdr:colOff>542108</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>26126</xdr:rowOff>
+      <xdr:rowOff>47897</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>317862</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>445226</xdr:rowOff>
+      <xdr:colOff>557347</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>20682</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9128,7 +9130,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14247223" y="21002897"/>
+          <a:off x="14486708" y="21024668"/>
           <a:ext cx="679268" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9338,16 +9340,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>387532</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>104504</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>423455</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>151311</xdr:colOff>
+      <xdr:rowOff>401684</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>532312</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>400595</xdr:rowOff>
+      <xdr:rowOff>378824</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9356,7 +9358,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14332132" y="18722341"/>
+          <a:off x="15377161" y="18700570"/>
           <a:ext cx="427808" cy="423454"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9623,16 +9625,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>605245</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>402770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>169816</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>380999</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>597625</xdr:colOff>
+      <xdr:colOff>369025</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>353785</xdr:rowOff>
+      <xdr:rowOff>375556</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9641,7 +9643,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14778445" y="20018828"/>
+          <a:off x="14549845" y="20040599"/>
           <a:ext cx="427809" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9851,14 +9853,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>576943</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>21771</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>18506</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>340723</xdr:colOff>
+      <xdr:colOff>449580</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>437606</xdr:rowOff>
     </xdr:to>
@@ -9869,7 +9871,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13857514" y="20995277"/>
+          <a:off x="13966371" y="20995277"/>
           <a:ext cx="427809" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -18411,16 +18413,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>642258</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>29392</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>100149</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>410392</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>533401</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>18506</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>399506</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -18429,8 +18431,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5290458" y="19220906"/>
-          <a:ext cx="1449977" cy="381000"/>
+          <a:off x="13813972" y="18763706"/>
+          <a:ext cx="1023257" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -25656,15 +25658,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>45718</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>54430</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>517678</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>11555</xdr:rowOff>
+      <xdr:colOff>285204</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>413658</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>93135</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>370784</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -25673,7 +25675,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4693918" y="19245944"/>
+          <a:off x="4933404" y="18712544"/>
           <a:ext cx="471960" cy="403440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -25848,15 +25850,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>511627</xdr:colOff>
+      <xdr:colOff>544285</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>418011</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>97973</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>428897</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>65315</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>406038</xdr:rowOff>
+      <xdr:rowOff>395152</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -25865,7 +25867,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10472056" y="19174097"/>
+          <a:off x="10504714" y="18716897"/>
           <a:ext cx="1545773" cy="423455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -26036,15 +26038,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>65314</xdr:colOff>
+      <xdr:colOff>391885</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>40277</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>655320</xdr:colOff>
+      <xdr:rowOff>18506</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>317862</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>421277</xdr:rowOff>
+      <xdr:rowOff>399506</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -26053,7 +26055,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5377543" y="18785477"/>
+          <a:off x="5704114" y="18763706"/>
           <a:ext cx="1254034" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -26220,16 +26222,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>439782</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>407126</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>97972</xdr:colOff>
+      <xdr:colOff>570411</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>384267</xdr:rowOff>
+      <xdr:rowOff>37013</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>511629</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>14154</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -26238,8 +26240,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10400211" y="18706012"/>
-          <a:ext cx="1650275" cy="423455"/>
+          <a:off x="12522925" y="18782213"/>
+          <a:ext cx="1269275" cy="423455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -26634,15 +26636,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>134983</xdr:colOff>
+      <xdr:colOff>26126</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>44630</xdr:rowOff>
+      <xdr:rowOff>33744</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>111035</xdr:colOff>
+      <xdr:colOff>2178</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>21770</xdr:rowOff>
+      <xdr:rowOff>10884</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -26651,7 +26653,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6775269" y="20128773"/>
+          <a:off x="6666412" y="20117887"/>
           <a:ext cx="640080" cy="423454"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -26691,15 +26693,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>252547</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>60478</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>33326</xdr:rowOff>
+      <xdr:colOff>165462</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>21771</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>637422</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>425211</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -26708,7 +26710,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4900747" y="20160343"/>
+          <a:off x="4813662" y="19659600"/>
           <a:ext cx="471960" cy="403440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -26878,16 +26880,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>631371</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>29394</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>410394</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>642256</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>7622</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>163286</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>388622</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -26896,7 +26898,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5279571" y="20113537"/>
+          <a:off x="5954485" y="19645451"/>
           <a:ext cx="1513115" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -27255,7 +27257,7 @@
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>relax</a:t>
+            <a:t>relax with pony to fs</a:t>
           </a:r>
           <a:endParaRPr/>
         </a:p>
@@ -27533,16 +27535,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>69669</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>505097</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>44631</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>45721</xdr:colOff>
+      <xdr:rowOff>55516</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>481148</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>21771</xdr:rowOff>
+      <xdr:rowOff>25036</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -27551,8 +27553,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6709955" y="20575088"/>
-          <a:ext cx="640080" cy="423454"/>
+          <a:off x="5153297" y="20585973"/>
+          <a:ext cx="640080" cy="415834"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -27583,6 +27585,23 @@
             <a:rPr lang="th-TH" sz="1000"/>
             <a:t>เดินทาง</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>8</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
+            <a:t>โมง</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1000"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -27743,28 +27762,166 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>595449</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>412570</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>195943</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>119742</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="433" name="สี่เหลี่ยมผืนผ้า 432"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10555878" y="19157770"/>
+          <a:ext cx="1592579" cy="599801"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ขอข้อมูลเรื่องกู้ยืมกสิกร เพื่อการศึกษา</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t> 1. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ยืมได้ยังไง</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>2. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
+            <a:t>ยืมได้ตอนไหน</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>149135</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>439783</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>546464</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>412569</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="487" name="สี่เหลี่ยมผืนผ้า 486"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12101649" y="18738669"/>
+          <a:ext cx="397329" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>กินข้าวแ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>576943</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>40278</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>421278</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="486" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5225143" y="20570735"/>
-          <a:ext cx="1415143" cy="381000"/>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76198</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>18505</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>555171</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>399505</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="488" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5388427" y="19210019"/>
+          <a:ext cx="1143001" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -27813,136 +27970,55 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>638992</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>369027</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>239486</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="433" name="สี่เหลี่ยมผืนผ้า 432"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5951221" y="19560541"/>
-          <a:ext cx="1592579" cy="599801"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>ขอข้อมูลเรื่องกู้ยืมกสิกร เพื่อการศึกษา</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000"/>
-            <a:t> 1. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>ยืมได้ยังไง</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000" baseline="0"/>
-            <a:t>2. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
-            <a:t>ยืมได้ตอนไหน</a:t>
-          </a:r>
-          <a:endParaRPr lang="th-TH" sz="1000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>268878</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>138248</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>439783</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>2178</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>412569</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="487" name="สี่เหลี่ยมผืนผ้า 486"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12221392" y="18738669"/>
-          <a:ext cx="397329" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>กินข้าวแ</a:t>
+        <xdr:cNvPr id="445" name="สี่เหลี่ยมผืนผ้า 444"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14746877" y="18738669"/>
+          <a:ext cx="640080" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เดินทาง</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -27951,26 +28027,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>228602</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>432162</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>163287</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>366848</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="488" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12845145" y="18731048"/>
-          <a:ext cx="1262742" cy="381000"/>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>468084</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>127364</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>590004</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>62050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="470" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5116284" y="20211507"/>
+          <a:ext cx="1449977" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -28012,6 +28088,925 @@
             </a:lnSpc>
           </a:pPr>
           <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>265612</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>425630</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>241664</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>402770</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="489" name="สี่เหลี่ยมผืนผ้า 488"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6905898" y="18724516"/>
+          <a:ext cx="640080" cy="423454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เดินทาง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>34834</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>97971</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>506794</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>55097</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="490" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4683034" y="20628428"/>
+          <a:ext cx="471960" cy="403440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="77933C"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>คอมใหญ่</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>511627</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>83822</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>32657</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>18508</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="491" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5823856" y="20614279"/>
+          <a:ext cx="1513115" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>relax </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Play Wii</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>170907</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>390799</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>130628</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>367939</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="486" name="สี่เหลี่ยมผืนผ้า 485"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15443564" y="20028628"/>
+          <a:ext cx="1951807" cy="423454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>รีบนอน</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
+            <a:t> ได้เผื่อเวลาเล่นเกมส์ กลับแต่ค่ำ</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>363582</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>66400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>339634</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>35920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="492" name="สี่เหลี่ยมผืนผ้า 491"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7003868" y="21489486"/>
+          <a:ext cx="640080" cy="415834"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เดินทาง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>211183</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>11973</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>187235</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>427807</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="494" name="สี่เหลี่ยมผืนผ้า 493"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12827726" y="21435059"/>
+          <a:ext cx="640080" cy="415834"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เดินทาง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>152398</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>37012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>87084</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>14153</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="495" name="สี่เหลี่ยมผืนผ้า 494"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14761027" y="21460098"/>
+          <a:ext cx="1262743" cy="423455"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>หาข้อมูลไปโอซาก้า</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
+            <a:t> ญี่ปุ่น ซักอย่างนึง</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>214449</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>423457</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>400596</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="496" name="สี่เหลี่ยมผืนผ้า 495"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5526678" y="21400228"/>
+          <a:ext cx="982979" cy="423454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ใส่ข้อมูลความรู้</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>587828</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>72935</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="497" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5900057" y="21049706"/>
+          <a:ext cx="1449977" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>relax</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>370114</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>40278</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>492034</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>421278</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="499" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10994571" y="21017049"/>
+          <a:ext cx="1449977" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>relax</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>334192</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>434344</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>653142</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>411483</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="500" name="สี่เหลี่ยมผืนผ้า 499"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10958649" y="21411115"/>
+          <a:ext cx="982979" cy="423454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ออกกำลัง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>468086</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>40277</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>590006</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>421277</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="501" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7772400" y="21463363"/>
+          <a:ext cx="1449977" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>relax</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>97970</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>418013</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>32656</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>395154</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="503" name="สี่เหลี่ยมผืนผ้า 502"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9394370" y="20948470"/>
+          <a:ext cx="1262743" cy="423455"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>หาข้อมูลไปโอซาก้า</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
+            <a:t> ญี่ปุ่น ซักอย่างนึง</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>225335</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>9800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>544286</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>433254</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="504" name="สี่เหลี่ยมผืนผ้า 503"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8193678" y="20986571"/>
+          <a:ext cx="982979" cy="423454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ใส่ข้อมูลความรู้</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -65407,7 +66402,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J49" sqref="J49"/>
+      <selection activeCell="P51" sqref="P51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -65419,32 +66414,32 @@
       <c r="A1" s="1">
         <v>43221</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="16"/>
     </row>
     <row r="2" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
@@ -65737,32 +66732,32 @@
       <c r="A11" s="1">
         <v>43221</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="14"/>
-      <c r="X11" s="14"/>
-      <c r="Y11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="16"/>
     </row>
     <row r="12" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -66049,32 +67044,32 @@
       <c r="A21" s="1">
         <v>43221</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="14"/>
-      <c r="U21" s="14"/>
-      <c r="V21" s="14"/>
-      <c r="W21" s="14"/>
-      <c r="X21" s="14"/>
-      <c r="Y21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="15"/>
+      <c r="W21" s="15"/>
+      <c r="X21" s="15"/>
+      <c r="Y21" s="16"/>
     </row>
     <row r="22" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
@@ -66364,32 +67359,32 @@
       <c r="A31" s="1">
         <v>43221</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14"/>
-      <c r="O31" s="14"/>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="14"/>
-      <c r="R31" s="14"/>
-      <c r="S31" s="14"/>
-      <c r="T31" s="14"/>
-      <c r="U31" s="14"/>
-      <c r="V31" s="14"/>
-      <c r="W31" s="14"/>
-      <c r="X31" s="14"/>
-      <c r="Y31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="15"/>
+      <c r="S31" s="15"/>
+      <c r="T31" s="15"/>
+      <c r="U31" s="15"/>
+      <c r="V31" s="15"/>
+      <c r="W31" s="15"/>
+      <c r="X31" s="15"/>
+      <c r="Y31" s="16"/>
     </row>
     <row r="32" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
@@ -66680,32 +67675,32 @@
       <c r="A41" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="14"/>
-      <c r="N41" s="14"/>
-      <c r="O41" s="14"/>
-      <c r="P41" s="14"/>
-      <c r="Q41" s="14"/>
-      <c r="R41" s="14"/>
-      <c r="S41" s="14"/>
-      <c r="T41" s="14"/>
-      <c r="U41" s="14"/>
-      <c r="V41" s="14"/>
-      <c r="W41" s="14"/>
-      <c r="X41" s="14"/>
-      <c r="Y41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="15"/>
+      <c r="N41" s="15"/>
+      <c r="O41" s="15"/>
+      <c r="P41" s="15"/>
+      <c r="Q41" s="15"/>
+      <c r="R41" s="15"/>
+      <c r="S41" s="15"/>
+      <c r="T41" s="15"/>
+      <c r="U41" s="15"/>
+      <c r="V41" s="15"/>
+      <c r="W41" s="15"/>
+      <c r="X41" s="15"/>
+      <c r="Y41" s="16"/>
     </row>
     <row r="42" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
@@ -67112,8 +68107,8 @@
       <c r="O56" t="s">
         <v>93</v>
       </c>
-      <c r="Q56" t="s">
-        <v>85</v>
+      <c r="Q56" s="13">
+        <v>43262</v>
       </c>
       <c r="S56" t="s">
         <v>85</v>
@@ -68094,32 +69089,32 @@
       <c r="A1" s="1">
         <v>43191</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="16"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -68410,32 +69405,32 @@
       <c r="A11" s="1">
         <v>43160</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="14"/>
-      <c r="X11" s="14"/>
-      <c r="Y11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="16"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
@@ -69087,32 +70082,32 @@
       <c r="A31" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14"/>
-      <c r="O31" s="14"/>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="14"/>
-      <c r="R31" s="14"/>
-      <c r="S31" s="14"/>
-      <c r="T31" s="14"/>
-      <c r="U31" s="14"/>
-      <c r="V31" s="14"/>
-      <c r="W31" s="14"/>
-      <c r="X31" s="14"/>
-      <c r="Y31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="15"/>
+      <c r="S31" s="15"/>
+      <c r="T31" s="15"/>
+      <c r="U31" s="15"/>
+      <c r="V31" s="15"/>
+      <c r="W31" s="15"/>
+      <c r="X31" s="15"/>
+      <c r="Y31" s="16"/>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">

--- a/Time Table May 2018.xlsx
+++ b/Time Table May 2018.xlsx
@@ -9169,16 +9169,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>272143</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>315686</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>18506</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>287382</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>437606</xdr:rowOff>
+      <xdr:rowOff>29393</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>330926</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>2179</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9187,7 +9187,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14216743" y="21441592"/>
+          <a:off x="14924315" y="21452479"/>
           <a:ext cx="679268" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9307,6 +9307,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -9910,16 +9913,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>234043</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>299356</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>10886</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>631372</xdr:colOff>
+      <xdr:rowOff>21772</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>32656</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>429986</xdr:rowOff>
+      <xdr:rowOff>440872</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9928,7 +9931,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13514614" y="21433972"/>
+          <a:off x="12251870" y="21444858"/>
           <a:ext cx="397329" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9967,16 +9970,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>576943</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>391885</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>10886</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>340723</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>429986</xdr:rowOff>
+      <xdr:rowOff>32657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>155665</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>5443</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9985,7 +9988,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13857514" y="21433972"/>
+          <a:off x="14336485" y="21455743"/>
           <a:ext cx="427809" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -28382,16 +28385,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>363582</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>472439</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>66400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>339634</xdr:colOff>
+      <xdr:rowOff>66401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>448490</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>35920</xdr:rowOff>
+      <xdr:rowOff>35921</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -28400,7 +28403,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7003868" y="21489486"/>
+          <a:off x="7776753" y="21489487"/>
           <a:ext cx="640080" cy="415834"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -28439,14 +28442,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>211183</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>102326</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>11973</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>187235</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>78377</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>427807</xdr:rowOff>
     </xdr:to>
@@ -28457,7 +28460,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12827726" y="21435059"/>
+          <a:off x="13382897" y="21435059"/>
           <a:ext cx="640080" cy="415834"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -28496,16 +28499,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>152398</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>468085</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>37012</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>87084</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>14153</xdr:rowOff>
+      <xdr:rowOff>4356</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>402771</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>427811</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -28514,7 +28517,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14761027" y="21460098"/>
+          <a:off x="6444342" y="21427442"/>
           <a:ext cx="1262743" cy="423455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -28564,15 +28567,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>214449</xdr:colOff>
+      <xdr:colOff>94706</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>423457</xdr:rowOff>
+      <xdr:rowOff>445230</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:colOff>413657</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>400596</xdr:rowOff>
+      <xdr:rowOff>422369</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -28581,7 +28584,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5526678" y="21400228"/>
+          <a:off x="5406935" y="21422001"/>
           <a:ext cx="982979" cy="423454"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -28760,15 +28763,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>334192</xdr:colOff>
+      <xdr:colOff>345078</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>434344</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>653142</xdr:colOff>
+      <xdr:rowOff>423458</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>411483</xdr:rowOff>
+      <xdr:rowOff>400597</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -28777,7 +28780,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10958649" y="21411115"/>
+          <a:off x="10969535" y="21400229"/>
           <a:ext cx="982979" cy="423454"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -28819,16 +28822,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>468086</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>261257</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>40277</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>590006</xdr:colOff>
+      <xdr:rowOff>62047</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>383176</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>421277</xdr:rowOff>
+      <xdr:rowOff>443047</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -28837,7 +28840,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7772400" y="21463363"/>
+          <a:off x="8893628" y="21485133"/>
           <a:ext cx="1449977" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -66402,7 +66405,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P51" sqref="P51"/>
+      <selection activeCell="S51" sqref="S51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Time Table May 2018.xlsx
+++ b/Time Table May 2018.xlsx
@@ -9170,15 +9170,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>315686</xdr:colOff>
+      <xdr:colOff>566057</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>29393</xdr:rowOff>
+      <xdr:rowOff>40279</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>330926</xdr:colOff>
+      <xdr:colOff>581297</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>2179</xdr:rowOff>
+      <xdr:rowOff>13065</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9187,7 +9187,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14924315" y="21452479"/>
+          <a:off x="15174686" y="21463365"/>
           <a:ext cx="679268" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9970,16 +9970,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>391885</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>10885</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>32657</xdr:rowOff>
+      <xdr:rowOff>54428</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>155665</xdr:colOff>
+      <xdr:colOff>438694</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>5443</xdr:rowOff>
+      <xdr:rowOff>27214</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9988,7 +9988,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14336485" y="21455743"/>
+          <a:off x="14619514" y="21477514"/>
           <a:ext cx="427809" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -28385,16 +28385,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>472439</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>91439</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>66401</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>448490</xdr:colOff>
+      <xdr:rowOff>109944</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>67491</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>35921</xdr:rowOff>
+      <xdr:rowOff>79464</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -28403,7 +28403,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7776753" y="21489487"/>
+          <a:off x="5403668" y="21533030"/>
           <a:ext cx="640080" cy="415834"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -28443,13 +28443,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>102326</xdr:colOff>
+      <xdr:colOff>526869</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>11973</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>78377</xdr:colOff>
+      <xdr:colOff>502920</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>427807</xdr:rowOff>
     </xdr:to>
@@ -28460,7 +28460,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13382897" y="21435059"/>
+          <a:off x="13807440" y="21435059"/>
           <a:ext cx="640080" cy="415834"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -28499,16 +28499,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>468085</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>620484</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>4356</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>402771</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>427811</xdr:rowOff>
+      <xdr:rowOff>26128</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>555170</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>3269</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -28517,7 +28517,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6444342" y="21427442"/>
+          <a:off x="7260770" y="21449214"/>
           <a:ext cx="1262743" cy="423455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -28566,16 +28566,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>94706</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>445230</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>413657</xdr:colOff>
+      <xdr:colOff>268877</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>422369</xdr:rowOff>
+      <xdr:rowOff>31572</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>587827</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>8712</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -28584,7 +28584,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5406935" y="21422001"/>
+          <a:off x="6245134" y="21454658"/>
           <a:ext cx="982979" cy="423454"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -28822,16 +28822,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>261257</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>544285</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>62047</xdr:rowOff>
+      <xdr:rowOff>29389</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>383176</xdr:colOff>
+      <xdr:colOff>2176</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>443047</xdr:rowOff>
+      <xdr:rowOff>410389</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -28840,7 +28840,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8893628" y="21485133"/>
+          <a:off x="8512628" y="21452475"/>
           <a:ext cx="1449977" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -29010,6 +29010,66 @@
             <a:rPr lang="th-TH" sz="1000"/>
             <a:t>ใส่ข้อมูลความรู้</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>165463</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>43542</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>637423</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>668</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="493" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4149634" y="21466628"/>
+          <a:ext cx="471960" cy="403440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="77933C"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>คอมใหญ่</a:t>
+          </a:r>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -66405,7 +66465,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S51" sqref="S51"/>
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
